--- a/추가피처데이터/투자자별매매동향(수급)/300720.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/300720.xlsx
@@ -1706,43 +1706,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1974,58 +1974,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>296</v>
+        <v>3765</v>
       </c>
       <c r="C6" s="7">
-        <v>244</v>
+        <v>3074</v>
       </c>
       <c r="D6" s="9">
-        <v>52</v>
+        <v>691</v>
       </c>
       <c r="E6" s="11">
-        <v>597</v>
+        <v>7551</v>
       </c>
       <c r="F6" s="13">
-        <v>718</v>
+        <v>9123</v>
       </c>
       <c r="G6" s="15">
-        <v>-121</v>
+        <v>-1572</v>
       </c>
       <c r="H6" s="17">
-        <v>234</v>
+        <v>2958</v>
       </c>
       <c r="I6" s="19">
-        <v>154</v>
+        <v>1932</v>
       </c>
       <c r="J6" s="21">
-        <v>81</v>
+        <v>1026</v>
       </c>
       <c r="K6" s="23">
-        <v>80</v>
+        <v>1001</v>
       </c>
       <c r="L6" s="25">
-        <v>92</v>
+        <v>1159</v>
       </c>
       <c r="M6" s="27">
-        <v>-13</v>
+        <v>-158</v>
       </c>
       <c r="N6" s="29">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="O6" s="31">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="P6" s="33">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="35">
-        <v>94</v>
+        <v>1184</v>
       </c>
       <c r="R6" s="37">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="S6" s="39">
-        <v>80</v>
+        <v>1008</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <v>37</v>
+        <v>467</v>
       </c>
       <c r="AA6" s="55">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="AB6" s="57">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="AC6" s="59">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="AD6" s="61">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AE6" s="63">
-        <v>-2</v>
+        <v>-32</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AJ6" s="73">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="AK6" s="75">
-        <v>-11</v>
+        <v>-144</v>
       </c>
       <c r="AL6" s="77">
-        <v>1130</v>
+        <v>14311</v>
       </c>
     </row>
     <row r="7">
@@ -2090,58 +2090,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>388</v>
+        <v>5004</v>
       </c>
       <c r="C7" s="7">
-        <v>477</v>
+        <v>6154</v>
       </c>
       <c r="D7" s="9">
-        <v>-89</v>
+        <v>-1151</v>
       </c>
       <c r="E7" s="11">
-        <v>1218</v>
+        <v>15762</v>
       </c>
       <c r="F7" s="13">
-        <v>1276</v>
+        <v>16510</v>
       </c>
       <c r="G7" s="15">
-        <v>-58</v>
+        <v>-748</v>
       </c>
       <c r="H7" s="17">
-        <v>432</v>
+        <v>5562</v>
       </c>
       <c r="I7" s="19">
-        <v>276</v>
+        <v>3542</v>
       </c>
       <c r="J7" s="21">
-        <v>156</v>
+        <v>2020</v>
       </c>
       <c r="K7" s="23">
-        <v>85</v>
+        <v>1088</v>
       </c>
       <c r="L7" s="25">
-        <v>113</v>
+        <v>1445</v>
       </c>
       <c r="M7" s="27">
-        <v>-27</v>
+        <v>-357</v>
       </c>
       <c r="N7" s="29">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="O7" s="31">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="P7" s="33">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="35">
-        <v>161</v>
+        <v>2070</v>
       </c>
       <c r="R7" s="37">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="S7" s="39">
-        <v>135</v>
+        <v>1733</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <v>147</v>
+        <v>1905</v>
       </c>
       <c r="AA7" s="55">
-        <v>86</v>
+        <v>1115</v>
       </c>
       <c r="AB7" s="57">
-        <v>61</v>
+        <v>791</v>
       </c>
       <c r="AC7" s="59">
-        <v>27</v>
+        <v>347</v>
       </c>
       <c r="AD7" s="61">
-        <v>47</v>
+        <v>607</v>
       </c>
       <c r="AE7" s="63">
-        <v>-21</v>
+        <v>-260</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2189,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="AJ7" s="73">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="AK7" s="75">
-        <v>-9</v>
+        <v>-122</v>
       </c>
       <c r="AL7" s="77">
-        <v>2042</v>
+        <v>26387</v>
       </c>
     </row>
     <row r="8">
@@ -2206,58 +2206,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>319</v>
+        <v>3827</v>
       </c>
       <c r="C8" s="7">
-        <v>385</v>
+        <v>4489</v>
       </c>
       <c r="D8" s="9">
-        <v>-66</v>
+        <v>-662</v>
       </c>
       <c r="E8" s="11">
-        <v>987</v>
+        <v>11738</v>
       </c>
       <c r="F8" s="13">
-        <v>1105</v>
+        <v>13237</v>
       </c>
       <c r="G8" s="15">
-        <v>-117</v>
+        <v>-1499</v>
       </c>
       <c r="H8" s="17">
-        <v>392</v>
+        <v>4608</v>
       </c>
       <c r="I8" s="19">
-        <v>214</v>
+        <v>2503</v>
       </c>
       <c r="J8" s="21">
-        <v>179</v>
+        <v>2105</v>
       </c>
       <c r="K8" s="23">
-        <v>97</v>
+        <v>1133</v>
       </c>
       <c r="L8" s="25">
-        <v>96</v>
+        <v>1115</v>
       </c>
       <c r="M8" s="27">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N8" s="29">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="O8" s="31">
-        <v>42</v>
+        <v>508</v>
       </c>
       <c r="P8" s="33">
-        <v>-28</v>
+        <v>-348</v>
       </c>
       <c r="Q8" s="35">
-        <v>116</v>
+        <v>1380</v>
       </c>
       <c r="R8" s="37">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="S8" s="39">
-        <v>105</v>
+        <v>1251</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2278,22 +2278,22 @@
         <v>0</v>
       </c>
       <c r="Z8" s="53">
-        <v>158</v>
+        <v>1836</v>
       </c>
       <c r="AA8" s="55">
-        <v>46</v>
+        <v>529</v>
       </c>
       <c r="AB8" s="57">
-        <v>112</v>
+        <v>1308</v>
       </c>
       <c r="AC8" s="59">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="61">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="AE8" s="63">
-        <v>-11</v>
+        <v>-124</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2305,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="AJ8" s="73">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AK8" s="75">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="AL8" s="77">
-        <v>1707</v>
+        <v>20279</v>
       </c>
     </row>
     <row r="9">
@@ -2322,58 +2322,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>481</v>
+        <v>5733</v>
       </c>
       <c r="C9" s="7">
-        <v>376</v>
+        <v>4504</v>
       </c>
       <c r="D9" s="9">
+        <v>1230</v>
+      </c>
+      <c r="E9" s="11">
+        <v>12443</v>
+      </c>
+      <c r="F9" s="13">
+        <v>11923</v>
+      </c>
+      <c r="G9" s="15">
+        <v>520</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1635</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3348</v>
+      </c>
+      <c r="J9" s="21">
+        <v>-1714</v>
+      </c>
+      <c r="K9" s="23">
+        <v>868</v>
+      </c>
+      <c r="L9" s="25">
+        <v>1305</v>
+      </c>
+      <c r="M9" s="27">
+        <v>-438</v>
+      </c>
+      <c r="N9" s="29">
         <v>105</v>
       </c>
-      <c r="E9" s="11">
-        <v>1034</v>
-      </c>
-      <c r="F9" s="13">
-        <v>990</v>
-      </c>
-      <c r="G9" s="15">
-        <v>44</v>
-      </c>
-      <c r="H9" s="17">
-        <v>138</v>
-      </c>
-      <c r="I9" s="19">
-        <v>283</v>
-      </c>
-      <c r="J9" s="21">
-        <v>-146</v>
-      </c>
-      <c r="K9" s="23">
-        <v>74</v>
-      </c>
-      <c r="L9" s="25">
-        <v>111</v>
-      </c>
-      <c r="M9" s="27">
-        <v>-37</v>
-      </c>
-      <c r="N9" s="29">
-        <v>9</v>
-      </c>
       <c r="O9" s="31">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="P9" s="33">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q9" s="35">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="R9" s="37">
-        <v>36</v>
+        <v>431</v>
       </c>
       <c r="S9" s="39">
-        <v>-15</v>
+        <v>-187</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <v>26</v>
+        <v>321</v>
       </c>
       <c r="AA9" s="55">
-        <v>113</v>
+        <v>1327</v>
       </c>
       <c r="AB9" s="57">
-        <v>-87</v>
+        <v>-1006</v>
       </c>
       <c r="AC9" s="59">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="AD9" s="61">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="AE9" s="63">
-        <v>-7</v>
+        <v>-79</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="AJ9" s="73">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="AK9" s="75">
-        <v>-3</v>
+        <v>-36</v>
       </c>
       <c r="AL9" s="77">
-        <v>1663</v>
+        <v>19934</v>
       </c>
     </row>
     <row r="10">
@@ -2438,58 +2438,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>381</v>
+        <v>4261</v>
       </c>
       <c r="C10" s="7">
-        <v>246</v>
+        <v>2738</v>
       </c>
       <c r="D10" s="9">
-        <v>135</v>
+        <v>1523</v>
       </c>
       <c r="E10" s="11">
-        <v>783</v>
+        <v>8653</v>
       </c>
       <c r="F10" s="13">
-        <v>725</v>
+        <v>8120</v>
       </c>
       <c r="G10" s="15">
-        <v>59</v>
+        <v>533</v>
       </c>
       <c r="H10" s="17">
-        <v>250</v>
+        <v>2818</v>
       </c>
       <c r="I10" s="19">
-        <v>447</v>
+        <v>4911</v>
       </c>
       <c r="J10" s="21">
-        <v>-197</v>
+        <v>-2093</v>
       </c>
       <c r="K10" s="23">
-        <v>109</v>
+        <v>1217</v>
       </c>
       <c r="L10" s="25">
-        <v>130</v>
+        <v>1440</v>
       </c>
       <c r="M10" s="27">
-        <v>-21</v>
+        <v>-223</v>
       </c>
       <c r="N10" s="29">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="O10" s="31">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="P10" s="33">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="35">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="R10" s="37">
-        <v>113</v>
+        <v>1242</v>
       </c>
       <c r="S10" s="39">
-        <v>-91</v>
+        <v>-990</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2510,22 +2510,22 @@
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>99</v>
+        <v>1140</v>
       </c>
       <c r="AA10" s="55">
-        <v>133</v>
+        <v>1452</v>
       </c>
       <c r="AB10" s="57">
-        <v>-33</v>
+        <v>-312</v>
       </c>
       <c r="AC10" s="59">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="AD10" s="61">
-        <v>66</v>
+        <v>730</v>
       </c>
       <c r="AE10" s="63">
-        <v>-63</v>
+        <v>-695</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="AJ10" s="73">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="AK10" s="75">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="AL10" s="77">
-        <v>1430</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="11">
@@ -2554,58 +2554,58 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>230</v>
+        <v>2829</v>
       </c>
       <c r="C11" s="7">
-        <v>402</v>
+        <v>4945</v>
       </c>
       <c r="D11" s="9">
-        <v>-172</v>
+        <v>-2116</v>
       </c>
       <c r="E11" s="11">
-        <v>769</v>
+        <v>9473</v>
       </c>
       <c r="F11" s="13">
-        <v>687</v>
+        <v>8509</v>
       </c>
       <c r="G11" s="15">
-        <v>82</v>
+        <v>963</v>
       </c>
       <c r="H11" s="17">
-        <v>293</v>
+        <v>3639</v>
       </c>
       <c r="I11" s="19">
-        <v>212</v>
+        <v>2596</v>
       </c>
       <c r="J11" s="21">
-        <v>81</v>
+        <v>1044</v>
       </c>
       <c r="K11" s="23">
-        <v>96</v>
+        <v>1186</v>
       </c>
       <c r="L11" s="25">
-        <v>93</v>
+        <v>1132</v>
       </c>
       <c r="M11" s="27">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="N11" s="29">
-        <v>35</v>
+        <v>438</v>
       </c>
       <c r="O11" s="31">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="P11" s="33">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="35">
-        <v>45</v>
+        <v>564</v>
       </c>
       <c r="R11" s="37">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="S11" s="39">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
@@ -2626,22 +2626,22 @@
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <v>95</v>
+        <v>1178</v>
       </c>
       <c r="AA11" s="55">
-        <v>45</v>
+        <v>552</v>
       </c>
       <c r="AB11" s="57">
-        <v>49</v>
+        <v>626</v>
       </c>
       <c r="AC11" s="59">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="AD11" s="61">
-        <v>48</v>
+        <v>586</v>
       </c>
       <c r="AE11" s="63">
-        <v>-26</v>
+        <v>-313</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2653,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="AJ11" s="73">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="AK11" s="75">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="AL11" s="77">
-        <v>1322</v>
+        <v>16310</v>
       </c>
     </row>
     <row r="12">
@@ -2670,58 +2670,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>444</v>
+        <v>5244</v>
       </c>
       <c r="C12" s="7">
-        <v>358</v>
+        <v>4272</v>
       </c>
       <c r="D12" s="9">
+        <v>972</v>
+      </c>
+      <c r="E12" s="11">
+        <v>11248</v>
+      </c>
+      <c r="F12" s="13">
+        <v>11523</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-275</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2492</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3221</v>
+      </c>
+      <c r="J12" s="21">
+        <v>-729</v>
+      </c>
+      <c r="K12" s="23">
+        <v>1166</v>
+      </c>
+      <c r="L12" s="25">
+        <v>975</v>
+      </c>
+      <c r="M12" s="27">
+        <v>190</v>
+      </c>
+      <c r="N12" s="29">
         <v>86</v>
       </c>
-      <c r="E12" s="11">
-        <v>945</v>
-      </c>
-      <c r="F12" s="13">
-        <v>967</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-22</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="O12" s="31">
+        <v>114</v>
+      </c>
+      <c r="P12" s="33">
+        <v>-29</v>
+      </c>
+      <c r="Q12" s="35">
         <v>208</v>
       </c>
-      <c r="I12" s="19">
-        <v>274</v>
-      </c>
-      <c r="J12" s="21">
-        <v>-66</v>
-      </c>
-      <c r="K12" s="23">
-        <v>98</v>
-      </c>
-      <c r="L12" s="25">
-        <v>83</v>
-      </c>
-      <c r="M12" s="27">
-        <v>15</v>
-      </c>
-      <c r="N12" s="29">
-        <v>7</v>
-      </c>
-      <c r="O12" s="31">
-        <v>10</v>
-      </c>
-      <c r="P12" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q12" s="35">
-        <v>17</v>
-      </c>
       <c r="R12" s="37">
-        <v>128</v>
+        <v>1501</v>
       </c>
       <c r="S12" s="39">
-        <v>-111</v>
+        <v>-1293</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>0</v>
       </c>
       <c r="Z12" s="53">
-        <v>74</v>
+        <v>896</v>
       </c>
       <c r="AA12" s="55">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="AB12" s="57">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="AC12" s="59">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="AD12" s="61">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="AE12" s="63">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="AJ12" s="73">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="AK12" s="75">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AL12" s="77">
-        <v>1621</v>
+        <v>19288</v>
       </c>
     </row>
     <row r="13">
@@ -2786,115 +2786,115 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>611</v>
+        <v>6761</v>
       </c>
       <c r="C13" s="7">
-        <v>572</v>
+        <v>6367</v>
       </c>
       <c r="D13" s="9">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="E13" s="11">
-        <v>1136</v>
+        <v>12687</v>
       </c>
       <c r="F13" s="13">
-        <v>1192</v>
+        <v>13286</v>
       </c>
       <c r="G13" s="15">
-        <v>-56</v>
+        <v>-600</v>
       </c>
       <c r="H13" s="17">
-        <v>162</v>
+        <v>1827</v>
       </c>
       <c r="I13" s="19">
-        <v>154</v>
+        <v>1716</v>
       </c>
       <c r="J13" s="21">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="K13" s="23">
-        <v>74</v>
+        <v>824</v>
       </c>
       <c r="L13" s="25">
-        <v>67</v>
+        <v>747</v>
       </c>
       <c r="M13" s="27">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="N13" s="29">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="O13" s="31">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="P13" s="33">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>309</v>
+      </c>
+      <c r="R13" s="37">
+        <v>100</v>
+      </c>
+      <c r="S13" s="39">
+        <v>209</v>
+      </c>
+      <c r="T13" s="41">
+        <v>0</v>
+      </c>
+      <c r="U13" s="43">
+        <v>0</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0</v>
+      </c>
+      <c r="W13" s="47">
+        <v>0</v>
+      </c>
+      <c r="X13" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="53">
+        <v>333</v>
+      </c>
+      <c r="AA13" s="55">
+        <v>430</v>
+      </c>
+      <c r="AB13" s="57">
+        <v>-96</v>
+      </c>
+      <c r="AC13" s="59">
+        <v>217</v>
+      </c>
+      <c r="AD13" s="61">
+        <v>405</v>
+      </c>
+      <c r="AE13" s="63">
+        <v>-188</v>
+      </c>
+      <c r="AF13" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="71">
+        <v>104</v>
+      </c>
+      <c r="AJ13" s="73">
         <v>10</v>
       </c>
-      <c r="Q13" s="35">
-        <v>27</v>
-      </c>
-      <c r="R13" s="37">
-        <v>9</v>
-      </c>
-      <c r="S13" s="39">
-        <v>18</v>
-      </c>
-      <c r="T13" s="41">
-        <v>0</v>
-      </c>
-      <c r="U13" s="43">
-        <v>0</v>
-      </c>
-      <c r="V13" s="45">
-        <v>0</v>
-      </c>
-      <c r="W13" s="47">
-        <v>0</v>
-      </c>
-      <c r="X13" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="53">
-        <v>29</v>
-      </c>
-      <c r="AA13" s="55">
-        <v>38</v>
-      </c>
-      <c r="AB13" s="57">
-        <v>-9</v>
-      </c>
-      <c r="AC13" s="59">
-        <v>19</v>
-      </c>
-      <c r="AD13" s="61">
-        <v>36</v>
-      </c>
-      <c r="AE13" s="63">
-        <v>-18</v>
-      </c>
-      <c r="AF13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="71">
-        <v>9</v>
-      </c>
-      <c r="AJ13" s="73">
-        <v>1</v>
-      </c>
       <c r="AK13" s="75">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="77">
-        <v>1919</v>
+        <v>21380</v>
       </c>
     </row>
     <row r="14">
@@ -2902,58 +2902,58 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>533</v>
+        <v>7056</v>
       </c>
       <c r="C14" s="7">
-        <v>386</v>
+        <v>5204</v>
       </c>
       <c r="D14" s="9">
-        <v>147</v>
+        <v>1852</v>
       </c>
       <c r="E14" s="11">
-        <v>1058</v>
+        <v>14444</v>
       </c>
       <c r="F14" s="13">
-        <v>1207</v>
+        <v>16340</v>
       </c>
       <c r="G14" s="15">
-        <v>-149</v>
+        <v>-1896</v>
       </c>
       <c r="H14" s="17">
-        <v>204</v>
+        <v>2817</v>
       </c>
       <c r="I14" s="19">
-        <v>259</v>
+        <v>3458</v>
       </c>
       <c r="J14" s="21">
+        <v>-641</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1040</v>
+      </c>
+      <c r="L14" s="25">
+        <v>1095</v>
+      </c>
+      <c r="M14" s="27">
         <v>-55</v>
       </c>
-      <c r="K14" s="23">
-        <v>78</v>
-      </c>
-      <c r="L14" s="25">
-        <v>80</v>
-      </c>
-      <c r="M14" s="27">
-        <v>-2</v>
-      </c>
       <c r="N14" s="29">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="O14" s="31">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="P14" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="35">
-        <v>91</v>
+        <v>1293</v>
       </c>
       <c r="R14" s="37">
-        <v>80</v>
+        <v>1112</v>
       </c>
       <c r="S14" s="39">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
@@ -2974,22 +2974,22 @@
         <v>0</v>
       </c>
       <c r="Z14" s="53">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="AA14" s="55">
-        <v>49</v>
+        <v>653</v>
       </c>
       <c r="AB14" s="57">
-        <v>-38</v>
+        <v>-498</v>
       </c>
       <c r="AC14" s="59">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="AD14" s="61">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="AE14" s="63">
-        <v>-29</v>
+        <v>-323</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>63</v>
+        <v>760</v>
       </c>
       <c r="AJ14" s="73">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="AK14" s="75">
-        <v>58</v>
+        <v>685</v>
       </c>
       <c r="AL14" s="77">
-        <v>1858</v>
+        <v>25076</v>
       </c>
     </row>
     <row r="15">
@@ -3018,58 +3018,58 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>679</v>
+        <v>10502</v>
       </c>
       <c r="C15" s="7">
-        <v>1034</v>
+        <v>16160</v>
       </c>
       <c r="D15" s="9">
-        <v>-354</v>
+        <v>-5657</v>
       </c>
       <c r="E15" s="11">
-        <v>5889</v>
+        <v>93842</v>
       </c>
       <c r="F15" s="13">
-        <v>5390</v>
+        <v>85748</v>
       </c>
       <c r="G15" s="15">
-        <v>499</v>
+        <v>8093</v>
       </c>
       <c r="H15" s="17">
-        <v>298</v>
+        <v>4578</v>
       </c>
       <c r="I15" s="19">
-        <v>426</v>
+        <v>6751</v>
       </c>
       <c r="J15" s="21">
-        <v>-128</v>
+        <v>-2173</v>
       </c>
       <c r="K15" s="23">
-        <v>58</v>
+        <v>872</v>
       </c>
       <c r="L15" s="25">
-        <v>72</v>
+        <v>1073</v>
       </c>
       <c r="M15" s="27">
-        <v>-14</v>
+        <v>-201</v>
       </c>
       <c r="N15" s="29">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="O15" s="31">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P15" s="33">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="35">
-        <v>70</v>
+        <v>1083</v>
       </c>
       <c r="R15" s="37">
-        <v>295</v>
+        <v>4746</v>
       </c>
       <c r="S15" s="39">
-        <v>-224</v>
+        <v>-3664</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
@@ -3084,28 +3084,28 @@
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Y15" s="51">
-        <v>-1</v>
+        <v>-16</v>
       </c>
       <c r="Z15" s="53">
-        <v>126</v>
+        <v>1946</v>
       </c>
       <c r="AA15" s="55">
-        <v>33</v>
+        <v>521</v>
       </c>
       <c r="AB15" s="57">
-        <v>92</v>
+        <v>1425</v>
       </c>
       <c r="AC15" s="59">
-        <v>35</v>
+        <v>534</v>
       </c>
       <c r="AD15" s="61">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AE15" s="63">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="AJ15" s="73">
-        <v>33</v>
+        <v>516</v>
       </c>
       <c r="AK15" s="75">
-        <v>-17</v>
+        <v>-263</v>
       </c>
       <c r="AL15" s="77">
-        <v>6883</v>
+        <v>109175</v>
       </c>
     </row>
     <row r="16">
@@ -3134,58 +3134,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>268</v>
+        <v>3609</v>
       </c>
       <c r="C16" s="7">
-        <v>310</v>
+        <v>4187</v>
       </c>
       <c r="D16" s="9">
-        <v>-42</v>
+        <v>-579</v>
       </c>
       <c r="E16" s="11">
-        <v>850</v>
+        <v>11498</v>
       </c>
       <c r="F16" s="13">
-        <v>823</v>
+        <v>11158</v>
       </c>
       <c r="G16" s="15">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="H16" s="17">
-        <v>203</v>
+        <v>2773</v>
       </c>
       <c r="I16" s="19">
-        <v>189</v>
+        <v>2535</v>
       </c>
       <c r="J16" s="21">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="K16" s="23">
-        <v>67</v>
+        <v>911</v>
       </c>
       <c r="L16" s="25">
-        <v>99</v>
+        <v>1327</v>
       </c>
       <c r="M16" s="27">
-        <v>-32</v>
+        <v>-416</v>
       </c>
       <c r="N16" s="29">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="O16" s="31">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="P16" s="33">
-        <v>-3</v>
+        <v>-38</v>
       </c>
       <c r="Q16" s="35">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="R16" s="37">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="S16" s="39">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3206,22 +3206,22 @@
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="AA16" s="55">
-        <v>77</v>
+        <v>1030</v>
       </c>
       <c r="AB16" s="57">
-        <v>-36</v>
+        <v>-468</v>
       </c>
       <c r="AC16" s="59">
-        <v>61</v>
+        <v>841</v>
       </c>
       <c r="AD16" s="61">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="AE16" s="63">
-        <v>58</v>
+        <v>788</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3233,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="75">
         <v>0</v>
       </c>
       <c r="AL16" s="77">
-        <v>1322</v>
+        <v>17881</v>
       </c>
     </row>
     <row r="17">
@@ -3250,58 +3250,58 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>772</v>
+        <v>11791</v>
       </c>
       <c r="C17" s="7">
-        <v>1468</v>
+        <v>23696</v>
       </c>
       <c r="D17" s="9">
-        <v>-696</v>
+        <v>-11905</v>
       </c>
       <c r="E17" s="11">
-        <v>2149</v>
+        <v>34247</v>
       </c>
       <c r="F17" s="13">
-        <v>1812</v>
+        <v>28236</v>
       </c>
       <c r="G17" s="15">
-        <v>338</v>
+        <v>6011</v>
       </c>
       <c r="H17" s="17">
-        <v>1013</v>
+        <v>16531</v>
       </c>
       <c r="I17" s="19">
-        <v>654</v>
+        <v>10621</v>
       </c>
       <c r="J17" s="21">
-        <v>359</v>
+        <v>5910</v>
       </c>
       <c r="K17" s="23">
-        <v>167</v>
+        <v>2536</v>
       </c>
       <c r="L17" s="25">
-        <v>318</v>
+        <v>5082</v>
       </c>
       <c r="M17" s="27">
-        <v>-151</v>
+        <v>-2546</v>
       </c>
       <c r="N17" s="29">
-        <v>84</v>
+        <v>1416</v>
       </c>
       <c r="O17" s="31">
-        <v>75</v>
+        <v>1297</v>
       </c>
       <c r="P17" s="33">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="35">
-        <v>366</v>
+        <v>6186</v>
       </c>
       <c r="R17" s="37">
-        <v>102</v>
+        <v>1717</v>
       </c>
       <c r="S17" s="39">
-        <v>264</v>
+        <v>4469</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
@@ -3322,22 +3322,22 @@
         <v>0</v>
       </c>
       <c r="Z17" s="53">
-        <v>304</v>
+        <v>4984</v>
       </c>
       <c r="AA17" s="55">
-        <v>87</v>
+        <v>1368</v>
       </c>
       <c r="AB17" s="57">
-        <v>217</v>
+        <v>3617</v>
       </c>
       <c r="AC17" s="59">
-        <v>92</v>
+        <v>1410</v>
       </c>
       <c r="AD17" s="61">
-        <v>72</v>
+        <v>1159</v>
       </c>
       <c r="AE17" s="63">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3349,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AJ17" s="73">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AK17" s="75">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="AL17" s="77">
-        <v>3937</v>
+        <v>62600</v>
       </c>
     </row>
     <row r="18">
@@ -3366,58 +3366,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>631</v>
+        <v>12418</v>
       </c>
       <c r="C18" s="7">
-        <v>292</v>
+        <v>5714</v>
       </c>
       <c r="D18" s="9">
-        <v>339</v>
+        <v>6704</v>
       </c>
       <c r="E18" s="11">
-        <v>1123</v>
+        <v>21886</v>
       </c>
       <c r="F18" s="13">
-        <v>1525</v>
+        <v>29858</v>
       </c>
       <c r="G18" s="15">
-        <v>-402</v>
+        <v>-7973</v>
       </c>
       <c r="H18" s="17">
-        <v>260</v>
+        <v>5110</v>
       </c>
       <c r="I18" s="19">
-        <v>203</v>
+        <v>3957</v>
       </c>
       <c r="J18" s="21">
-        <v>57</v>
+        <v>1153</v>
       </c>
       <c r="K18" s="23">
-        <v>57</v>
+        <v>1118</v>
       </c>
       <c r="L18" s="25">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="M18" s="27">
-        <v>41</v>
+        <v>799</v>
       </c>
       <c r="N18" s="29">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="O18" s="31">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="P18" s="33">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="Q18" s="35">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="R18" s="37">
-        <v>52</v>
+        <v>1023</v>
       </c>
       <c r="S18" s="39">
-        <v>-34</v>
+        <v>-669</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3438,22 +3438,22 @@
         <v>0</v>
       </c>
       <c r="Z18" s="53">
-        <v>141</v>
+        <v>2784</v>
       </c>
       <c r="AA18" s="55">
-        <v>76</v>
+        <v>1451</v>
       </c>
       <c r="AB18" s="57">
-        <v>65</v>
+        <v>1332</v>
       </c>
       <c r="AC18" s="59">
-        <v>37</v>
+        <v>702</v>
       </c>
       <c r="AD18" s="61">
-        <v>50</v>
+        <v>998</v>
       </c>
       <c r="AE18" s="63">
-        <v>-14</v>
+        <v>-296</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="AJ18" s="73">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AK18" s="75">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="AL18" s="77">
-        <v>2022</v>
+        <v>39561</v>
       </c>
     </row>
     <row r="19">
@@ -3482,58 +3482,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>538</v>
+        <v>11282</v>
       </c>
       <c r="C19" s="7">
-        <v>328</v>
+        <v>6904</v>
       </c>
       <c r="D19" s="9">
-        <v>210</v>
+        <v>4377</v>
       </c>
       <c r="E19" s="11">
-        <v>3125</v>
+        <v>65460</v>
       </c>
       <c r="F19" s="13">
-        <v>3620</v>
+        <v>75799</v>
       </c>
       <c r="G19" s="15">
-        <v>-495</v>
+        <v>-10339</v>
       </c>
       <c r="H19" s="17">
-        <v>524</v>
+        <v>10898</v>
       </c>
       <c r="I19" s="19">
-        <v>233</v>
+        <v>4828</v>
       </c>
       <c r="J19" s="21">
-        <v>291</v>
+        <v>6071</v>
       </c>
       <c r="K19" s="23">
-        <v>67</v>
+        <v>1404</v>
       </c>
       <c r="L19" s="25">
-        <v>72</v>
+        <v>1469</v>
       </c>
       <c r="M19" s="27">
-        <v>-5</v>
+        <v>-66</v>
       </c>
       <c r="N19" s="29">
-        <v>28</v>
+        <v>583</v>
       </c>
       <c r="O19" s="31">
-        <v>69</v>
+        <v>1431</v>
       </c>
       <c r="P19" s="33">
-        <v>-40</v>
+        <v>-848</v>
       </c>
       <c r="Q19" s="35">
-        <v>48</v>
+        <v>994</v>
       </c>
       <c r="R19" s="37">
-        <v>54</v>
+        <v>1121</v>
       </c>
       <c r="S19" s="39">
-        <v>-6</v>
+        <v>-127</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="Z19" s="53">
-        <v>324</v>
+        <v>6721</v>
       </c>
       <c r="AA19" s="55">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="AB19" s="57">
-        <v>301</v>
+        <v>6252</v>
       </c>
       <c r="AC19" s="59">
-        <v>57</v>
+        <v>1197</v>
       </c>
       <c r="AD19" s="61">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="AE19" s="63">
-        <v>41</v>
+        <v>860</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>23</v>
+        <v>471</v>
       </c>
       <c r="AJ19" s="73">
-        <v>28</v>
+        <v>580</v>
       </c>
       <c r="AK19" s="75">
-        <v>-6</v>
+        <v>-110</v>
       </c>
       <c r="AL19" s="77">
-        <v>4209</v>
+        <v>88111</v>
       </c>
     </row>
     <row r="20">
@@ -3598,67 +3598,67 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>1087</v>
+        <v>21677</v>
       </c>
       <c r="C20" s="7">
-        <v>963</v>
+        <v>19347</v>
       </c>
       <c r="D20" s="9">
-        <v>124</v>
+        <v>2330</v>
       </c>
       <c r="E20" s="11">
-        <v>6843</v>
+        <v>139085</v>
       </c>
       <c r="F20" s="13">
-        <v>6488</v>
+        <v>132096</v>
       </c>
       <c r="G20" s="15">
-        <v>355</v>
+        <v>6989</v>
       </c>
       <c r="H20" s="17">
-        <v>309</v>
+        <v>6149</v>
       </c>
       <c r="I20" s="19">
-        <v>780</v>
+        <v>15310</v>
       </c>
       <c r="J20" s="21">
-        <v>-470</v>
+        <v>-9161</v>
       </c>
       <c r="K20" s="23">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="L20" s="25">
-        <v>38</v>
+        <v>754</v>
       </c>
       <c r="M20" s="27">
-        <v>-34</v>
+        <v>-670</v>
       </c>
       <c r="N20" s="29">
-        <v>66</v>
+        <v>1314</v>
       </c>
       <c r="O20" s="31">
-        <v>214</v>
+        <v>4214</v>
       </c>
       <c r="P20" s="33">
-        <v>-148</v>
+        <v>-2900</v>
       </c>
       <c r="Q20" s="35">
-        <v>43</v>
+        <v>834</v>
       </c>
       <c r="R20" s="37">
-        <v>280</v>
+        <v>5509</v>
       </c>
       <c r="S20" s="39">
-        <v>-237</v>
+        <v>-4674</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
       </c>
       <c r="U20" s="43">
-        <v>58</v>
+        <v>1112</v>
       </c>
       <c r="V20" s="45">
-        <v>-58</v>
+        <v>-1112</v>
       </c>
       <c r="W20" s="47">
         <v>0</v>
@@ -3670,22 +3670,22 @@
         <v>0</v>
       </c>
       <c r="Z20" s="53">
-        <v>169</v>
+        <v>3378</v>
       </c>
       <c r="AA20" s="55">
-        <v>104</v>
+        <v>1992</v>
       </c>
       <c r="AB20" s="57">
-        <v>65</v>
+        <v>1386</v>
       </c>
       <c r="AC20" s="59">
-        <v>27</v>
+        <v>539</v>
       </c>
       <c r="AD20" s="61">
-        <v>87</v>
+        <v>1729</v>
       </c>
       <c r="AE20" s="63">
-        <v>-59</v>
+        <v>-1190</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3697,16 +3697,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>42</v>
+        <v>839</v>
       </c>
       <c r="AJ20" s="73">
-        <v>51</v>
+        <v>998</v>
       </c>
       <c r="AK20" s="75">
-        <v>-9</v>
+        <v>-158</v>
       </c>
       <c r="AL20" s="77">
-        <v>8281</v>
+        <v>167750</v>
       </c>
     </row>
     <row r="21">
@@ -3714,58 +3714,58 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>413</v>
+        <v>7653</v>
       </c>
       <c r="C21" s="7">
-        <v>405</v>
+        <v>7523</v>
       </c>
       <c r="D21" s="9">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E21" s="11">
-        <v>2054</v>
+        <v>37948</v>
       </c>
       <c r="F21" s="13">
-        <v>2068</v>
+        <v>38532</v>
       </c>
       <c r="G21" s="15">
-        <v>-14</v>
+        <v>-584</v>
       </c>
       <c r="H21" s="17">
-        <v>342</v>
+        <v>6631</v>
       </c>
       <c r="I21" s="19">
-        <v>277</v>
+        <v>5074</v>
       </c>
       <c r="J21" s="21">
-        <v>65</v>
+        <v>1557</v>
       </c>
       <c r="K21" s="23">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="L21" s="25">
-        <v>62</v>
+        <v>1100</v>
       </c>
       <c r="M21" s="27">
-        <v>-49</v>
+        <v>-868</v>
       </c>
       <c r="N21" s="29">
-        <v>111</v>
+        <v>2192</v>
       </c>
       <c r="O21" s="31">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="P21" s="33">
-        <v>99</v>
+        <v>1961</v>
       </c>
       <c r="Q21" s="35">
-        <v>35</v>
+        <v>679</v>
       </c>
       <c r="R21" s="37">
-        <v>143</v>
+        <v>2626</v>
       </c>
       <c r="S21" s="39">
-        <v>-108</v>
+        <v>-1946</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
@@ -3780,28 +3780,28 @@
         <v>0</v>
       </c>
       <c r="X21" s="49">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="Y21" s="51">
-        <v>-15</v>
+        <v>-288</v>
       </c>
       <c r="Z21" s="53">
-        <v>115</v>
+        <v>2241</v>
       </c>
       <c r="AA21" s="55">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="AB21" s="57">
-        <v>98</v>
+        <v>1926</v>
       </c>
       <c r="AC21" s="59">
-        <v>69</v>
+        <v>1287</v>
       </c>
       <c r="AD21" s="61">
-        <v>27</v>
+        <v>514</v>
       </c>
       <c r="AE21" s="63">
-        <v>42</v>
+        <v>773</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3813,16 +3813,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="AJ21" s="73">
-        <v>65</v>
+        <v>1220</v>
       </c>
       <c r="AK21" s="75">
-        <v>-58</v>
+        <v>-1103</v>
       </c>
       <c r="AL21" s="77">
-        <v>2816</v>
+        <v>52349</v>
       </c>
     </row>
     <row r="22">
@@ -3830,67 +3830,67 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>2897</v>
+        <v>67501</v>
       </c>
       <c r="C22" s="7">
-        <v>2816</v>
+        <v>64728</v>
       </c>
       <c r="D22" s="9">
-        <v>81</v>
+        <v>2773</v>
       </c>
       <c r="E22" s="11">
-        <v>15840</v>
+        <v>363650</v>
       </c>
       <c r="F22" s="13">
-        <v>14467</v>
+        <v>332273</v>
       </c>
       <c r="G22" s="15">
-        <v>1373</v>
+        <v>31377</v>
       </c>
       <c r="H22" s="17">
-        <v>3184</v>
+        <v>72259</v>
       </c>
       <c r="I22" s="19">
-        <v>2026</v>
+        <v>43743</v>
       </c>
       <c r="J22" s="21">
-        <v>1158</v>
+        <v>28517</v>
       </c>
       <c r="K22" s="23">
-        <v>637</v>
+        <v>14942</v>
       </c>
       <c r="L22" s="25">
-        <v>597</v>
+        <v>13124</v>
       </c>
       <c r="M22" s="27">
-        <v>40</v>
+        <v>1818</v>
       </c>
       <c r="N22" s="29">
-        <v>185</v>
+        <v>3908</v>
       </c>
       <c r="O22" s="31">
-        <v>22</v>
+        <v>445</v>
       </c>
       <c r="P22" s="33">
-        <v>163</v>
+        <v>3463</v>
       </c>
       <c r="Q22" s="35">
-        <v>612</v>
+        <v>13212</v>
       </c>
       <c r="R22" s="37">
-        <v>518</v>
+        <v>10797</v>
       </c>
       <c r="S22" s="39">
-        <v>94</v>
+        <v>2415</v>
       </c>
       <c r="T22" s="41">
-        <v>57</v>
+        <v>1320</v>
       </c>
       <c r="U22" s="43">
         <v>0</v>
       </c>
       <c r="V22" s="45">
-        <v>57</v>
+        <v>1320</v>
       </c>
       <c r="W22" s="47">
         <v>0</v>
@@ -3902,22 +3902,22 @@
         <v>0</v>
       </c>
       <c r="Z22" s="53">
-        <v>584</v>
+        <v>12742</v>
       </c>
       <c r="AA22" s="55">
-        <v>122</v>
+        <v>2749</v>
       </c>
       <c r="AB22" s="57">
-        <v>462</v>
+        <v>9993</v>
       </c>
       <c r="AC22" s="59">
-        <v>1109</v>
+        <v>26135</v>
       </c>
       <c r="AD22" s="61">
-        <v>767</v>
+        <v>16627</v>
       </c>
       <c r="AE22" s="63">
-        <v>343</v>
+        <v>9508</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3929,16 +3929,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>140</v>
+        <v>3126</v>
       </c>
       <c r="AJ22" s="73">
-        <v>2751</v>
+        <v>65792</v>
       </c>
       <c r="AK22" s="75">
-        <v>-2612</v>
+        <v>-62666</v>
       </c>
       <c r="AL22" s="77">
-        <v>22060</v>
+        <v>506536</v>
       </c>
     </row>
     <row r="23">
@@ -3946,58 +3946,58 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>1239</v>
+        <v>27319</v>
       </c>
       <c r="C23" s="7">
-        <v>1280</v>
+        <v>28148</v>
       </c>
       <c r="D23" s="9">
-        <v>-41</v>
+        <v>-829</v>
       </c>
       <c r="E23" s="11">
-        <v>6923</v>
+        <v>153301</v>
       </c>
       <c r="F23" s="13">
-        <v>7309</v>
+        <v>161757</v>
       </c>
       <c r="G23" s="15">
-        <v>-386</v>
+        <v>-8456</v>
       </c>
       <c r="H23" s="17">
-        <v>667</v>
+        <v>14586</v>
       </c>
       <c r="I23" s="19">
+        <v>4349</v>
+      </c>
+      <c r="J23" s="21">
+        <v>10237</v>
+      </c>
+      <c r="K23" s="23">
+        <v>297</v>
+      </c>
+      <c r="L23" s="25">
         <v>199</v>
       </c>
-      <c r="J23" s="21">
-        <v>468</v>
-      </c>
-      <c r="K23" s="23">
-        <v>14</v>
-      </c>
-      <c r="L23" s="25">
-        <v>9</v>
-      </c>
       <c r="M23" s="27">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="N23" s="29">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="O23" s="31">
-        <v>28</v>
+        <v>576</v>
       </c>
       <c r="P23" s="33">
-        <v>-24</v>
+        <v>-501</v>
       </c>
       <c r="Q23" s="35">
-        <v>64</v>
+        <v>1406</v>
       </c>
       <c r="R23" s="37">
-        <v>53</v>
+        <v>1173</v>
       </c>
       <c r="S23" s="39">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
@@ -4018,22 +4018,22 @@
         <v>0</v>
       </c>
       <c r="Z23" s="53">
-        <v>524</v>
+        <v>11451</v>
       </c>
       <c r="AA23" s="55">
-        <v>59</v>
+        <v>1295</v>
       </c>
       <c r="AB23" s="57">
-        <v>464</v>
+        <v>10156</v>
       </c>
       <c r="AC23" s="59">
-        <v>61</v>
+        <v>1358</v>
       </c>
       <c r="AD23" s="61">
-        <v>50</v>
+        <v>1106</v>
       </c>
       <c r="AE23" s="63">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4045,16 +4045,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="AJ23" s="73">
-        <v>59</v>
+        <v>1349</v>
       </c>
       <c r="AK23" s="75">
-        <v>-41</v>
+        <v>-952</v>
       </c>
       <c r="AL23" s="77">
-        <v>8848</v>
+        <v>195603</v>
       </c>
     </row>
     <row r="24">
@@ -4062,94 +4062,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>2675</v>
+        <v>56014</v>
       </c>
       <c r="C24" s="7">
-        <v>2798</v>
+        <v>58691</v>
       </c>
       <c r="D24" s="9">
-        <v>-123</v>
+        <v>-2677</v>
       </c>
       <c r="E24" s="11">
-        <v>22076</v>
+        <v>465710</v>
       </c>
       <c r="F24" s="13">
-        <v>22054</v>
+        <v>465135</v>
       </c>
       <c r="G24" s="15">
-        <v>22</v>
+        <v>575</v>
       </c>
       <c r="H24" s="17">
-        <v>829</v>
+        <v>17335</v>
       </c>
       <c r="I24" s="19">
-        <v>574</v>
+        <v>11927</v>
       </c>
       <c r="J24" s="21">
-        <v>255</v>
+        <v>5408</v>
       </c>
       <c r="K24" s="23">
-        <v>88</v>
+        <v>1833</v>
       </c>
       <c r="L24" s="25">
-        <v>67</v>
+        <v>1334</v>
       </c>
       <c r="M24" s="27">
-        <v>21</v>
+        <v>499</v>
       </c>
       <c r="N24" s="29">
-        <v>18</v>
+        <v>376</v>
       </c>
       <c r="O24" s="31">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="P24" s="33">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="35">
-        <v>264</v>
+        <v>5527</v>
       </c>
       <c r="R24" s="37">
-        <v>101</v>
+        <v>2054</v>
       </c>
       <c r="S24" s="39">
-        <v>163</v>
+        <v>3473</v>
       </c>
       <c r="T24" s="41">
         <v>0</v>
       </c>
       <c r="U24" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W24" s="47">
         <v>0</v>
       </c>
       <c r="X24" s="49">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="Y24" s="51">
-        <v>-13</v>
+        <v>-267</v>
       </c>
       <c r="Z24" s="53">
-        <v>397</v>
+        <v>8251</v>
       </c>
       <c r="AA24" s="55">
-        <v>91</v>
+        <v>1850</v>
       </c>
       <c r="AB24" s="57">
-        <v>306</v>
+        <v>6401</v>
       </c>
       <c r="AC24" s="59">
-        <v>62</v>
+        <v>1348</v>
       </c>
       <c r="AD24" s="61">
-        <v>286</v>
+        <v>6095</v>
       </c>
       <c r="AE24" s="63">
-        <v>-224</v>
+        <v>-4747</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>53</v>
+        <v>1089</v>
       </c>
       <c r="AJ24" s="73">
-        <v>207</v>
+        <v>4396</v>
       </c>
       <c r="AK24" s="75">
-        <v>-154</v>
+        <v>-3306</v>
       </c>
       <c r="AL24" s="77">
-        <v>25632</v>
+        <v>540149</v>
       </c>
     </row>
     <row r="25">
@@ -4178,94 +4178,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1323</v>
+        <v>23145</v>
       </c>
       <c r="C25" s="7">
-        <v>1316</v>
+        <v>23480</v>
       </c>
       <c r="D25" s="9">
-        <v>7</v>
+        <v>-335</v>
       </c>
       <c r="E25" s="11">
-        <v>10507</v>
+        <v>196861</v>
       </c>
       <c r="F25" s="13">
-        <v>9778</v>
+        <v>183412</v>
       </c>
       <c r="G25" s="15">
-        <v>729</v>
+        <v>13449</v>
       </c>
       <c r="H25" s="17">
-        <v>453</v>
+        <v>7725</v>
       </c>
       <c r="I25" s="19">
-        <v>675</v>
+        <v>11153</v>
       </c>
       <c r="J25" s="21">
-        <v>-221</v>
+        <v>-3428</v>
       </c>
       <c r="K25" s="23">
-        <v>26</v>
+        <v>433</v>
       </c>
       <c r="L25" s="25">
-        <v>99</v>
+        <v>1613</v>
       </c>
       <c r="M25" s="27">
-        <v>-73</v>
+        <v>-1180</v>
       </c>
       <c r="N25" s="29">
-        <v>24</v>
+        <v>394</v>
       </c>
       <c r="O25" s="31">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="P25" s="33">
-        <v>-1</v>
+        <v>-38</v>
       </c>
       <c r="Q25" s="35">
-        <v>160</v>
+        <v>2841</v>
       </c>
       <c r="R25" s="37">
-        <v>254</v>
+        <v>4115</v>
       </c>
       <c r="S25" s="39">
-        <v>-93</v>
+        <v>-1274</v>
       </c>
       <c r="T25" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="43">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="V25" s="45">
-        <v>-11</v>
+        <v>-169</v>
       </c>
       <c r="W25" s="47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X25" s="49">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="Y25" s="51">
-        <v>-2</v>
+        <v>-39</v>
       </c>
       <c r="Z25" s="53">
-        <v>102</v>
+        <v>1743</v>
       </c>
       <c r="AA25" s="55">
-        <v>100</v>
+        <v>1790</v>
       </c>
       <c r="AB25" s="57">
-        <v>3</v>
+        <v>-47</v>
       </c>
       <c r="AC25" s="59">
-        <v>141</v>
+        <v>2308</v>
       </c>
       <c r="AD25" s="61">
-        <v>185</v>
+        <v>2989</v>
       </c>
       <c r="AE25" s="63">
-        <v>-43</v>
+        <v>-681</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4277,16 +4277,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>66</v>
+        <v>1080</v>
       </c>
       <c r="AJ25" s="73">
-        <v>581</v>
+        <v>10766</v>
       </c>
       <c r="AK25" s="75">
-        <v>-515</v>
+        <v>-9686</v>
       </c>
       <c r="AL25" s="77">
-        <v>12348</v>
+        <v>228811</v>
       </c>
     </row>
     <row r="26">
@@ -4294,94 +4294,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>442</v>
+        <v>14044</v>
       </c>
       <c r="C26" s="7">
-        <v>391</v>
+        <v>13065</v>
       </c>
       <c r="D26" s="9">
-        <v>51</v>
+        <v>980</v>
       </c>
       <c r="E26" s="11">
-        <v>2812</v>
+        <v>84819</v>
       </c>
       <c r="F26" s="13">
-        <v>2627</v>
+        <v>73166</v>
       </c>
       <c r="G26" s="15">
-        <v>185</v>
+        <v>11653</v>
       </c>
       <c r="H26" s="17">
-        <v>367</v>
+        <v>9816</v>
       </c>
       <c r="I26" s="19">
-        <v>317</v>
+        <v>8012</v>
       </c>
       <c r="J26" s="21">
-        <v>50</v>
+        <v>1804</v>
       </c>
       <c r="K26" s="23">
-        <v>47</v>
+        <v>2808</v>
       </c>
       <c r="L26" s="25">
-        <v>156</v>
+        <v>3388</v>
       </c>
       <c r="M26" s="27">
-        <v>-109</v>
+        <v>-579</v>
       </c>
       <c r="N26" s="29">
+        <v>300</v>
+      </c>
+      <c r="O26" s="31">
+        <v>333</v>
+      </c>
+      <c r="P26" s="33">
+        <v>-33</v>
+      </c>
+      <c r="Q26" s="35">
+        <v>1622</v>
+      </c>
+      <c r="R26" s="37">
+        <v>1057</v>
+      </c>
+      <c r="S26" s="39">
+        <v>565</v>
+      </c>
+      <c r="T26" s="41">
+        <v>0</v>
+      </c>
+      <c r="U26" s="43">
+        <v>71</v>
+      </c>
+      <c r="V26" s="45">
+        <v>-71</v>
+      </c>
+      <c r="W26" s="47">
+        <v>2</v>
+      </c>
+      <c r="X26" s="49">
         <v>14</v>
       </c>
-      <c r="O26" s="31">
-        <v>6</v>
-      </c>
-      <c r="P26" s="33">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="35">
-        <v>76</v>
-      </c>
-      <c r="R26" s="37">
-        <v>27</v>
-      </c>
-      <c r="S26" s="39">
-        <v>49</v>
-      </c>
-      <c r="T26" s="41">
-        <v>0</v>
-      </c>
-      <c r="U26" s="43">
-        <v>4</v>
-      </c>
-      <c r="V26" s="45">
-        <v>-4</v>
-      </c>
-      <c r="W26" s="47">
-        <v>0</v>
-      </c>
-      <c r="X26" s="49">
-        <v>0</v>
-      </c>
       <c r="Y26" s="51">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="Z26" s="53">
-        <v>113</v>
+        <v>2421</v>
       </c>
       <c r="AA26" s="55">
-        <v>120</v>
+        <v>2941</v>
       </c>
       <c r="AB26" s="57">
-        <v>-7</v>
+        <v>-520</v>
       </c>
       <c r="AC26" s="59">
-        <v>116</v>
+        <v>2663</v>
       </c>
       <c r="AD26" s="61">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="AE26" s="63">
-        <v>113</v>
+        <v>2455</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4393,16 +4393,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>38</v>
+        <v>992</v>
       </c>
       <c r="AJ26" s="73">
-        <v>325</v>
+        <v>15430</v>
       </c>
       <c r="AK26" s="75">
-        <v>-286</v>
+        <v>-14437</v>
       </c>
       <c r="AL26" s="77">
-        <v>3660</v>
+        <v>109672</v>
       </c>
     </row>
     <row r="27">
@@ -4410,58 +4410,58 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>92</v>
+        <v>19156</v>
       </c>
       <c r="C27" s="7">
-        <v>74</v>
+        <v>15674</v>
       </c>
       <c r="D27" s="9">
-        <v>17</v>
+        <v>3482</v>
       </c>
       <c r="E27" s="11">
-        <v>401</v>
+        <v>83770</v>
       </c>
       <c r="F27" s="13">
-        <v>378</v>
+        <v>78723</v>
       </c>
       <c r="G27" s="15">
-        <v>23</v>
+        <v>5047</v>
       </c>
       <c r="H27" s="17">
-        <v>70</v>
+        <v>14670</v>
       </c>
       <c r="I27" s="19">
-        <v>40</v>
+        <v>7846</v>
       </c>
       <c r="J27" s="21">
-        <v>31</v>
+        <v>6824</v>
       </c>
       <c r="K27" s="23">
-        <v>3</v>
+        <v>657</v>
       </c>
       <c r="L27" s="25">
-        <v>4</v>
+        <v>834</v>
       </c>
       <c r="M27" s="27">
-        <v>-1</v>
+        <v>-177</v>
       </c>
       <c r="N27" s="29">
-        <v>2</v>
+        <v>384</v>
       </c>
       <c r="O27" s="31">
-        <v>8</v>
+        <v>1680</v>
       </c>
       <c r="P27" s="33">
-        <v>-6</v>
+        <v>-1296</v>
       </c>
       <c r="Q27" s="35">
-        <v>6</v>
+        <v>1174</v>
       </c>
       <c r="R27" s="37">
-        <v>14</v>
+        <v>2617</v>
       </c>
       <c r="S27" s="39">
-        <v>-8</v>
+        <v>-1443</v>
       </c>
       <c r="T27" s="41">
         <v>0</v>
@@ -4473,31 +4473,31 @@
         <v>0</v>
       </c>
       <c r="W27" s="47">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X27" s="49">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="Y27" s="51">
-        <v>-1</v>
+        <v>-128</v>
       </c>
       <c r="Z27" s="53">
-        <v>53</v>
+        <v>11178</v>
       </c>
       <c r="AA27" s="55">
-        <v>4</v>
+        <v>882</v>
       </c>
       <c r="AB27" s="57">
-        <v>49</v>
+        <v>10297</v>
       </c>
       <c r="AC27" s="59">
-        <v>6</v>
+        <v>1256</v>
       </c>
       <c r="AD27" s="61">
-        <v>8</v>
+        <v>1684</v>
       </c>
       <c r="AE27" s="63">
-        <v>-2</v>
+        <v>-428</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="AJ27" s="73">
-        <v>72</v>
+        <v>15553</v>
       </c>
       <c r="AK27" s="75">
-        <v>-71</v>
+        <v>-15352</v>
       </c>
       <c r="AL27" s="77">
-        <v>564</v>
+        <v>117796</v>
       </c>
     </row>
     <row r="28">
@@ -4526,94 +4526,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>34</v>
+        <v>5736</v>
       </c>
       <c r="C28" s="7">
-        <v>31</v>
+        <v>5240</v>
       </c>
       <c r="D28" s="9">
-        <v>3</v>
+        <v>496</v>
       </c>
       <c r="E28" s="11">
-        <v>317</v>
+        <v>54060</v>
       </c>
       <c r="F28" s="13">
-        <v>296</v>
+        <v>50421</v>
       </c>
       <c r="G28" s="15">
-        <v>21</v>
+        <v>3639</v>
       </c>
       <c r="H28" s="17">
-        <v>22</v>
+        <v>3661</v>
       </c>
       <c r="I28" s="19">
-        <v>40</v>
+        <v>6873</v>
       </c>
       <c r="J28" s="21">
-        <v>-19</v>
+        <v>-3212</v>
       </c>
       <c r="K28" s="23">
-        <v>3</v>
+        <v>526</v>
       </c>
       <c r="L28" s="25">
+        <v>1758</v>
+      </c>
+      <c r="M28" s="27">
+        <v>-1232</v>
+      </c>
+      <c r="N28" s="29">
+        <v>143</v>
+      </c>
+      <c r="O28" s="31">
+        <v>734</v>
+      </c>
+      <c r="P28" s="33">
+        <v>-590</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>1223</v>
+      </c>
+      <c r="R28" s="37">
+        <v>1990</v>
+      </c>
+      <c r="S28" s="39">
+        <v>-768</v>
+      </c>
+      <c r="T28" s="41">
+        <v>0</v>
+      </c>
+      <c r="U28" s="43">
         <v>10</v>
       </c>
-      <c r="M28" s="27">
-        <v>-7</v>
-      </c>
-      <c r="N28" s="29">
-        <v>1</v>
-      </c>
-      <c r="O28" s="31">
-        <v>4</v>
-      </c>
-      <c r="P28" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>7</v>
-      </c>
-      <c r="R28" s="37">
-        <v>12</v>
-      </c>
-      <c r="S28" s="39">
-        <v>-4</v>
-      </c>
-      <c r="T28" s="41">
-        <v>0</v>
-      </c>
-      <c r="U28" s="43">
-        <v>0</v>
-      </c>
       <c r="V28" s="45">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="W28" s="47">
         <v>0</v>
       </c>
       <c r="X28" s="49">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="51">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="Z28" s="53">
-        <v>6</v>
+        <v>1002</v>
       </c>
       <c r="AA28" s="55">
-        <v>9</v>
+        <v>1526</v>
       </c>
       <c r="AB28" s="57">
-        <v>-3</v>
+        <v>-523</v>
       </c>
       <c r="AC28" s="59">
-        <v>5</v>
+        <v>767</v>
       </c>
       <c r="AD28" s="61">
-        <v>5</v>
+        <v>812</v>
       </c>
       <c r="AE28" s="63">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4625,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>3</v>
+        <v>546</v>
       </c>
       <c r="AJ28" s="73">
-        <v>8</v>
+        <v>1469</v>
       </c>
       <c r="AK28" s="75">
-        <v>-5</v>
+        <v>-923</v>
       </c>
       <c r="AL28" s="77">
-        <v>376</v>
+        <v>64004</v>
       </c>
     </row>
     <row r="29">
@@ -4642,94 +4642,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>16</v>
+        <v>2661</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>4050</v>
       </c>
       <c r="D29" s="9">
-        <v>-9</v>
+        <v>-1388</v>
       </c>
       <c r="E29" s="11">
-        <v>136</v>
+        <v>22265</v>
       </c>
       <c r="F29" s="13">
-        <v>134</v>
+        <v>22023</v>
       </c>
       <c r="G29" s="15">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="H29" s="17">
-        <v>44</v>
+        <v>7304</v>
       </c>
       <c r="I29" s="19">
-        <v>40</v>
+        <v>6511</v>
       </c>
       <c r="J29" s="21">
-        <v>4</v>
+        <v>793</v>
       </c>
       <c r="K29" s="23">
-        <v>4</v>
+        <v>626</v>
       </c>
       <c r="L29" s="25">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="M29" s="27">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="N29" s="29">
-        <v>10</v>
+        <v>1651</v>
       </c>
       <c r="O29" s="31">
-        <v>9</v>
+        <v>1412</v>
       </c>
       <c r="P29" s="33">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="35">
-        <v>3</v>
+        <v>554</v>
       </c>
       <c r="R29" s="37">
-        <v>9</v>
+        <v>1553</v>
       </c>
       <c r="S29" s="39">
-        <v>-6</v>
+        <v>-999</v>
       </c>
       <c r="T29" s="41">
         <v>0</v>
       </c>
       <c r="U29" s="43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V29" s="45">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="W29" s="47">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X29" s="49">
         <v>0</v>
       </c>
       <c r="Y29" s="51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z29" s="53">
-        <v>22</v>
+        <v>3559</v>
       </c>
       <c r="AA29" s="55">
-        <v>5</v>
+        <v>848</v>
       </c>
       <c r="AB29" s="57">
-        <v>17</v>
+        <v>2711</v>
       </c>
       <c r="AC29" s="59">
-        <v>5</v>
+        <v>900</v>
       </c>
       <c r="AD29" s="61">
-        <v>14</v>
+        <v>2226</v>
       </c>
       <c r="AE29" s="63">
-        <v>-8</v>
+        <v>-1326</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4741,16 +4741,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>5</v>
+        <v>854</v>
       </c>
       <c r="AJ29" s="73">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="AK29" s="75">
-        <v>2</v>
+        <v>353</v>
       </c>
       <c r="AL29" s="77">
-        <v>201</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="30">
@@ -4758,58 +4758,58 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>28</v>
+        <v>4528</v>
       </c>
       <c r="C30" s="7">
-        <v>36</v>
+        <v>5905</v>
       </c>
       <c r="D30" s="9">
-        <v>-8</v>
+        <v>-1376</v>
       </c>
       <c r="E30" s="11">
-        <v>147</v>
+        <v>23831</v>
       </c>
       <c r="F30" s="13">
-        <v>166</v>
+        <v>26995</v>
       </c>
       <c r="G30" s="15">
-        <v>-19</v>
+        <v>-3164</v>
       </c>
       <c r="H30" s="17">
-        <v>68</v>
+        <v>11235</v>
       </c>
       <c r="I30" s="19">
-        <v>43</v>
+        <v>6935</v>
       </c>
       <c r="J30" s="21">
-        <v>26</v>
+        <v>4300</v>
       </c>
       <c r="K30" s="23">
-        <v>3</v>
+        <v>497</v>
       </c>
       <c r="L30" s="25">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="M30" s="27">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="N30" s="29">
-        <v>13</v>
+        <v>2195</v>
       </c>
       <c r="O30" s="31">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="P30" s="33">
-        <v>13</v>
+        <v>2114</v>
       </c>
       <c r="Q30" s="35">
-        <v>19</v>
+        <v>3066</v>
       </c>
       <c r="R30" s="37">
-        <v>25</v>
+        <v>4046</v>
       </c>
       <c r="S30" s="39">
-        <v>-6</v>
+        <v>-980</v>
       </c>
       <c r="T30" s="41">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>0</v>
       </c>
       <c r="Z30" s="53">
-        <v>24</v>
+        <v>3942</v>
       </c>
       <c r="AA30" s="55">
-        <v>7</v>
+        <v>1163</v>
       </c>
       <c r="AB30" s="57">
-        <v>17</v>
+        <v>2779</v>
       </c>
       <c r="AC30" s="59">
-        <v>9</v>
+        <v>1535</v>
       </c>
       <c r="AD30" s="61">
-        <v>8</v>
+        <v>1322</v>
       </c>
       <c r="AE30" s="63">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4857,16 +4857,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>6</v>
+        <v>952</v>
       </c>
       <c r="AJ30" s="73">
-        <v>4</v>
+        <v>711</v>
       </c>
       <c r="AK30" s="75">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="AL30" s="77">
-        <v>250</v>
+        <v>40547</v>
       </c>
     </row>
     <row r="31">
@@ -4874,67 +4874,67 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>37</v>
+        <v>5664</v>
       </c>
       <c r="C31" s="7">
-        <v>34</v>
+        <v>5222</v>
       </c>
       <c r="D31" s="9">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="E31" s="11">
-        <v>227</v>
+        <v>35091</v>
       </c>
       <c r="F31" s="13">
-        <v>233</v>
+        <v>36053</v>
       </c>
       <c r="G31" s="15">
-        <v>-6</v>
+        <v>-962</v>
       </c>
       <c r="H31" s="17">
-        <v>32</v>
+        <v>4905</v>
       </c>
       <c r="I31" s="19">
-        <v>27</v>
+        <v>4153</v>
       </c>
       <c r="J31" s="21">
-        <v>5</v>
+        <v>753</v>
       </c>
       <c r="K31" s="23">
-        <v>3</v>
+        <v>502</v>
       </c>
       <c r="L31" s="25">
-        <v>4</v>
+        <v>650</v>
       </c>
       <c r="M31" s="27">
-        <v>-1</v>
+        <v>-149</v>
       </c>
       <c r="N31" s="29">
+        <v>122</v>
+      </c>
+      <c r="O31" s="31">
+        <v>45</v>
+      </c>
+      <c r="P31" s="33">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="35">
+        <v>2189</v>
+      </c>
+      <c r="R31" s="37">
+        <v>2014</v>
+      </c>
+      <c r="S31" s="39">
+        <v>176</v>
+      </c>
+      <c r="T31" s="41">
         <v>1</v>
       </c>
-      <c r="O31" s="31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="35">
-        <v>14</v>
-      </c>
-      <c r="R31" s="37">
-        <v>13</v>
-      </c>
-      <c r="S31" s="39">
-        <v>1</v>
-      </c>
-      <c r="T31" s="41">
-        <v>0</v>
-      </c>
       <c r="U31" s="43">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V31" s="45">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="W31" s="47">
         <v>0</v>
@@ -4946,22 +4946,22 @@
         <v>0</v>
       </c>
       <c r="Z31" s="53">
-        <v>4</v>
+        <v>679</v>
       </c>
       <c r="AA31" s="55">
-        <v>6</v>
+        <v>873</v>
       </c>
       <c r="AB31" s="57">
-        <v>-1</v>
+        <v>-194</v>
       </c>
       <c r="AC31" s="59">
-        <v>9</v>
+        <v>1412</v>
       </c>
       <c r="AD31" s="61">
-        <v>4</v>
+        <v>538</v>
       </c>
       <c r="AE31" s="63">
-        <v>6</v>
+        <v>875</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4973,16 +4973,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>4</v>
+        <v>619</v>
       </c>
       <c r="AJ31" s="73">
-        <v>6</v>
+        <v>853</v>
       </c>
       <c r="AK31" s="75">
-        <v>-2</v>
+        <v>-234</v>
       </c>
       <c r="AL31" s="77">
-        <v>300</v>
+        <v>46280</v>
       </c>
     </row>
     <row r="32">
@@ -4990,94 +4990,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>45</v>
+        <v>6021</v>
       </c>
       <c r="C32" s="7">
-        <v>33</v>
+        <v>4670</v>
       </c>
       <c r="D32" s="9">
-        <v>12</v>
+        <v>1351</v>
       </c>
       <c r="E32" s="11">
-        <v>195</v>
+        <v>28112</v>
       </c>
       <c r="F32" s="13">
-        <v>224</v>
+        <v>31722</v>
       </c>
       <c r="G32" s="15">
-        <v>-28</v>
+        <v>-3611</v>
       </c>
       <c r="H32" s="17">
-        <v>64</v>
+        <v>8941</v>
       </c>
       <c r="I32" s="19">
-        <v>47</v>
+        <v>6439</v>
       </c>
       <c r="J32" s="21">
-        <v>17</v>
+        <v>2502</v>
       </c>
       <c r="K32" s="23">
-        <v>15</v>
+        <v>2199</v>
       </c>
       <c r="L32" s="25">
-        <v>5</v>
+        <v>732</v>
       </c>
       <c r="M32" s="27">
-        <v>10</v>
+        <v>1467</v>
       </c>
       <c r="N32" s="29">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="O32" s="31">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="P32" s="33">
-        <v>-1</v>
+        <v>-85</v>
       </c>
       <c r="Q32" s="35">
-        <v>9</v>
+        <v>1127</v>
       </c>
       <c r="R32" s="37">
-        <v>26</v>
+        <v>3590</v>
       </c>
       <c r="S32" s="39">
-        <v>-17</v>
+        <v>-2462</v>
       </c>
       <c r="T32" s="41">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="U32" s="43">
         <v>0</v>
       </c>
       <c r="V32" s="45">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="W32" s="47">
         <v>0</v>
       </c>
       <c r="X32" s="49">
-        <v>3</v>
+        <v>446</v>
       </c>
       <c r="Y32" s="51">
-        <v>-3</v>
+        <v>-446</v>
       </c>
       <c r="Z32" s="53">
-        <v>23</v>
+        <v>3232</v>
       </c>
       <c r="AA32" s="55">
-        <v>6</v>
+        <v>863</v>
       </c>
       <c r="AB32" s="57">
-        <v>17</v>
+        <v>2369</v>
       </c>
       <c r="AC32" s="59">
-        <v>14</v>
+        <v>2038</v>
       </c>
       <c r="AD32" s="61">
-        <v>5</v>
+        <v>624</v>
       </c>
       <c r="AE32" s="63">
-        <v>9</v>
+        <v>1414</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5089,16 +5089,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>4</v>
+        <v>533</v>
       </c>
       <c r="AJ32" s="73">
-        <v>5</v>
+        <v>775</v>
       </c>
       <c r="AK32" s="75">
-        <v>-1</v>
+        <v>-242</v>
       </c>
       <c r="AL32" s="77">
-        <v>309</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="33">
@@ -5106,58 +5106,58 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
+        <v>2233</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2061</v>
+      </c>
+      <c r="D33" s="9">
+        <v>173</v>
+      </c>
+      <c r="E33" s="11">
+        <v>15756</v>
+      </c>
+      <c r="F33" s="13">
+        <v>14358</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1398</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1362</v>
+      </c>
+      <c r="I33" s="19">
+        <v>3032</v>
+      </c>
+      <c r="J33" s="21">
+        <v>-1670</v>
+      </c>
+      <c r="K33" s="23">
         <v>20</v>
       </c>
-      <c r="C33" s="7">
-        <v>18</v>
-      </c>
-      <c r="D33" s="9">
-        <v>2</v>
-      </c>
-      <c r="E33" s="11">
-        <v>139</v>
-      </c>
-      <c r="F33" s="13">
-        <v>127</v>
-      </c>
-      <c r="G33" s="15">
-        <v>12</v>
-      </c>
-      <c r="H33" s="17">
-        <v>12</v>
-      </c>
-      <c r="I33" s="19">
-        <v>27</v>
-      </c>
-      <c r="J33" s="21">
+      <c r="L33" s="25">
+        <v>608</v>
+      </c>
+      <c r="M33" s="27">
+        <v>-587</v>
+      </c>
+      <c r="N33" s="29">
+        <v>34</v>
+      </c>
+      <c r="O33" s="31">
+        <v>49</v>
+      </c>
+      <c r="P33" s="33">
         <v>-15</v>
       </c>
-      <c r="K33" s="23">
-        <v>0</v>
-      </c>
-      <c r="L33" s="25">
-        <v>5</v>
-      </c>
-      <c r="M33" s="27">
-        <v>-5</v>
-      </c>
-      <c r="N33" s="29">
-        <v>0</v>
-      </c>
-      <c r="O33" s="31">
-        <v>0</v>
-      </c>
-      <c r="P33" s="33">
-        <v>0</v>
-      </c>
       <c r="Q33" s="35">
-        <v>6</v>
+        <v>709</v>
       </c>
       <c r="R33" s="37">
-        <v>7</v>
+        <v>804</v>
       </c>
       <c r="S33" s="39">
-        <v>-1</v>
+        <v>-95</v>
       </c>
       <c r="T33" s="41">
         <v>0</v>
@@ -5178,22 +5178,22 @@
         <v>0</v>
       </c>
       <c r="Z33" s="53">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="AA33" s="55">
-        <v>12</v>
+        <v>1351</v>
       </c>
       <c r="AB33" s="57">
-        <v>-10</v>
+        <v>-1087</v>
       </c>
       <c r="AC33" s="59">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="AD33" s="61">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="AE33" s="63">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5205,16 +5205,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="AJ33" s="73">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="AK33" s="75">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AL33" s="77">
-        <v>173</v>
+        <v>19567</v>
       </c>
     </row>
     <row r="34">
@@ -5222,94 +5222,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>38</v>
+        <v>4068</v>
       </c>
       <c r="C34" s="7">
-        <v>22</v>
+        <v>2432</v>
       </c>
       <c r="D34" s="9">
-        <v>15</v>
+        <v>1636</v>
       </c>
       <c r="E34" s="11">
-        <v>170</v>
+        <v>18418</v>
       </c>
       <c r="F34" s="13">
-        <v>155</v>
+        <v>16747</v>
       </c>
       <c r="G34" s="15">
-        <v>15</v>
+        <v>1671</v>
       </c>
       <c r="H34" s="17">
-        <v>15</v>
+        <v>1664</v>
       </c>
       <c r="I34" s="19">
-        <v>45</v>
+        <v>4879</v>
       </c>
       <c r="J34" s="21">
-        <v>-30</v>
+        <v>-3215</v>
       </c>
       <c r="K34" s="23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L34" s="25">
-        <v>4</v>
+        <v>468</v>
       </c>
       <c r="M34" s="27">
-        <v>-4</v>
+        <v>-425</v>
       </c>
       <c r="N34" s="29">
+        <v>123</v>
+      </c>
+      <c r="O34" s="31">
+        <v>85</v>
+      </c>
+      <c r="P34" s="33">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="35">
+        <v>911</v>
+      </c>
+      <c r="R34" s="37">
+        <v>1353</v>
+      </c>
+      <c r="S34" s="39">
+        <v>-442</v>
+      </c>
+      <c r="T34" s="41">
+        <v>0</v>
+      </c>
+      <c r="U34" s="43">
+        <v>0</v>
+      </c>
+      <c r="V34" s="45">
+        <v>0</v>
+      </c>
+      <c r="W34" s="47">
         <v>1</v>
       </c>
-      <c r="O34" s="31">
+      <c r="X34" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="51">
         <v>1</v>
       </c>
-      <c r="P34" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="35">
-        <v>8</v>
-      </c>
-      <c r="R34" s="37">
-        <v>12</v>
-      </c>
-      <c r="S34" s="39">
-        <v>-4</v>
-      </c>
-      <c r="T34" s="41">
-        <v>0</v>
-      </c>
-      <c r="U34" s="43">
-        <v>0</v>
-      </c>
-      <c r="V34" s="45">
-        <v>0</v>
-      </c>
-      <c r="W34" s="47">
-        <v>0</v>
-      </c>
-      <c r="X34" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="51">
-        <v>0</v>
-      </c>
       <c r="Z34" s="53">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="AA34" s="55">
-        <v>25</v>
+        <v>2697</v>
       </c>
       <c r="AB34" s="57">
-        <v>-24</v>
+        <v>-2566</v>
       </c>
       <c r="AC34" s="59">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="AD34" s="61">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="AE34" s="63">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5321,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>5</v>
+        <v>520</v>
       </c>
       <c r="AJ34" s="73">
-        <v>6</v>
+        <v>613</v>
       </c>
       <c r="AK34" s="75">
-        <v>-1</v>
+        <v>-93</v>
       </c>
       <c r="AL34" s="77">
-        <v>228</v>
+        <v>24671</v>
       </c>
     </row>
     <row r="35">
@@ -5338,58 +5338,58 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>16</v>
+        <v>1632</v>
       </c>
       <c r="C35" s="7">
-        <v>26</v>
+        <v>2695</v>
       </c>
       <c r="D35" s="9">
-        <v>-10</v>
+        <v>-1063</v>
       </c>
       <c r="E35" s="11">
-        <v>130</v>
+        <v>13648</v>
       </c>
       <c r="F35" s="13">
-        <v>145</v>
+        <v>15132</v>
       </c>
       <c r="G35" s="15">
-        <v>-15</v>
+        <v>-1484</v>
       </c>
       <c r="H35" s="17">
-        <v>52</v>
+        <v>5440</v>
       </c>
       <c r="I35" s="19">
-        <v>36</v>
+        <v>3752</v>
       </c>
       <c r="J35" s="21">
-        <v>16</v>
+        <v>1688</v>
       </c>
       <c r="K35" s="23">
-        <v>6</v>
+        <v>589</v>
       </c>
       <c r="L35" s="25">
-        <v>18</v>
+        <v>1860</v>
       </c>
       <c r="M35" s="27">
-        <v>-12</v>
+        <v>-1272</v>
       </c>
       <c r="N35" s="29">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="O35" s="31">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="P35" s="33">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="Q35" s="35">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="R35" s="37">
-        <v>6</v>
+        <v>613</v>
       </c>
       <c r="S35" s="39">
-        <v>6</v>
+        <v>587</v>
       </c>
       <c r="T35" s="41">
         <v>0</v>
@@ -5401,31 +5401,31 @@
         <v>0</v>
       </c>
       <c r="W35" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X35" s="49">
         <v>0</v>
       </c>
       <c r="Y35" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="53">
-        <v>19</v>
+        <v>2033</v>
       </c>
       <c r="AA35" s="55">
-        <v>9</v>
+        <v>952</v>
       </c>
       <c r="AB35" s="57">
-        <v>10</v>
+        <v>1081</v>
       </c>
       <c r="AC35" s="59">
-        <v>15</v>
+        <v>1538</v>
       </c>
       <c r="AD35" s="61">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="AE35" s="63">
-        <v>13</v>
+        <v>1306</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5437,16 +5437,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>9</v>
+        <v>967</v>
       </c>
       <c r="AJ35" s="73">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="AK35" s="75">
-        <v>8</v>
+        <v>859</v>
       </c>
       <c r="AL35" s="77">
-        <v>207</v>
+        <v>21687</v>
       </c>
     </row>
     <row r="36">
@@ -5454,58 +5454,58 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>21</v>
+        <v>1899</v>
       </c>
       <c r="C36" s="7">
-        <v>16</v>
+        <v>1382</v>
       </c>
       <c r="D36" s="9">
-        <v>5</v>
+        <v>517</v>
       </c>
       <c r="E36" s="11">
-        <v>78</v>
+        <v>6959</v>
       </c>
       <c r="F36" s="13">
-        <v>85</v>
+        <v>7649</v>
       </c>
       <c r="G36" s="15">
-        <v>-7</v>
+        <v>-690</v>
       </c>
       <c r="H36" s="17">
-        <v>24</v>
+        <v>2177</v>
       </c>
       <c r="I36" s="19">
-        <v>22</v>
+        <v>1970</v>
       </c>
       <c r="J36" s="21">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="K36" s="23">
-        <v>9</v>
+        <v>828</v>
       </c>
       <c r="L36" s="25">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="M36" s="27">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="N36" s="29">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="O36" s="31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P36" s="33">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="Q36" s="35">
-        <v>10</v>
+        <v>878</v>
       </c>
       <c r="R36" s="37">
-        <v>8</v>
+        <v>717</v>
       </c>
       <c r="S36" s="39">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="T36" s="41">
         <v>0</v>
@@ -5526,22 +5526,22 @@
         <v>0</v>
       </c>
       <c r="Z36" s="53">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="AA36" s="55">
-        <v>8</v>
+        <v>717</v>
       </c>
       <c r="AB36" s="57">
-        <v>-6</v>
+        <v>-472</v>
       </c>
       <c r="AC36" s="59">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="AD36" s="61">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="AE36" s="63">
-        <v>-1</v>
+        <v>-51</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5553,16 +5553,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ36" s="73">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="AK36" s="75">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="AL36" s="77">
-        <v>124</v>
+        <v>11077</v>
       </c>
     </row>
     <row r="37">
@@ -5570,58 +5570,58 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>10</v>
+        <v>796</v>
       </c>
       <c r="C37" s="7">
-        <v>13</v>
+        <v>1075</v>
       </c>
       <c r="D37" s="9">
-        <v>-3</v>
+        <v>-279</v>
       </c>
       <c r="E37" s="11">
-        <v>39</v>
+        <v>3254</v>
       </c>
       <c r="F37" s="13">
-        <v>38</v>
+        <v>3154</v>
       </c>
       <c r="G37" s="15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H37" s="17">
-        <v>17</v>
+        <v>1434</v>
       </c>
       <c r="I37" s="19">
-        <v>19</v>
+        <v>1603</v>
       </c>
       <c r="J37" s="21">
-        <v>-2</v>
+        <v>-169</v>
       </c>
       <c r="K37" s="23">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="L37" s="25">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="M37" s="27">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="N37" s="29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O37" s="31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P37" s="33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="35">
-        <v>10</v>
+        <v>858</v>
       </c>
       <c r="R37" s="37">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S37" s="39">
-        <v>9</v>
+        <v>781</v>
       </c>
       <c r="T37" s="41">
         <v>0</v>
@@ -5642,22 +5642,22 @@
         <v>0</v>
       </c>
       <c r="Z37" s="53">
+        <v>210</v>
+      </c>
+      <c r="AA37" s="55">
+        <v>1118</v>
+      </c>
+      <c r="AB37" s="57">
+        <v>-908</v>
+      </c>
+      <c r="AC37" s="59">
         <v>2</v>
       </c>
-      <c r="AA37" s="55">
-        <v>13</v>
-      </c>
-      <c r="AB37" s="57">
-        <v>-11</v>
-      </c>
-      <c r="AC37" s="59">
-        <v>0</v>
-      </c>
       <c r="AD37" s="61">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="AE37" s="63">
-        <v>-4</v>
+        <v>-290</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5669,16 +5669,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="AJ37" s="73">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="AK37" s="75">
-        <v>4</v>
+        <v>349</v>
       </c>
       <c r="AL37" s="77">
-        <v>71</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="38">
@@ -5686,68 +5686,68 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
+        <v>613</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D38" s="9">
+        <v>-388</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4488</v>
+      </c>
+      <c r="F38" s="13">
+        <v>3131</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1358</v>
+      </c>
+      <c r="H38" s="17">
+        <v>1616</v>
+      </c>
+      <c r="I38" s="19">
+        <v>2589</v>
+      </c>
+      <c r="J38" s="21">
+        <v>-973</v>
+      </c>
+      <c r="K38" s="23">
+        <v>678</v>
+      </c>
+      <c r="L38" s="25">
+        <v>74</v>
+      </c>
+      <c r="M38" s="27">
+        <v>605</v>
+      </c>
+      <c r="N38" s="29">
+        <v>20</v>
+      </c>
+      <c r="O38" s="31">
+        <v>99</v>
+      </c>
+      <c r="P38" s="33">
+        <v>-79</v>
+      </c>
+      <c r="Q38" s="35">
+        <v>573</v>
+      </c>
+      <c r="R38" s="37">
+        <v>1279</v>
+      </c>
+      <c r="S38" s="39">
+        <v>-706</v>
+      </c>
+      <c r="T38" s="41">
         <v>8</v>
       </c>
-      <c r="C38" s="7">
-        <v>13</v>
-      </c>
-      <c r="D38" s="9">
-        <v>-5</v>
-      </c>
-      <c r="E38" s="11">
-        <v>56</v>
-      </c>
-      <c r="F38" s="13">
-        <v>39</v>
-      </c>
-      <c r="G38" s="15">
-        <v>17</v>
-      </c>
-      <c r="H38" s="17">
-        <v>20</v>
-      </c>
-      <c r="I38" s="19">
-        <v>32</v>
-      </c>
-      <c r="J38" s="21">
-        <v>-12</v>
-      </c>
-      <c r="K38" s="23">
+      <c r="U38" s="43">
+        <v>0</v>
+      </c>
+      <c r="V38" s="45">
         <v>8</v>
       </c>
-      <c r="L38" s="25">
-        <v>1</v>
-      </c>
-      <c r="M38" s="27">
-        <v>8</v>
-      </c>
-      <c r="N38" s="29">
-        <v>0</v>
-      </c>
-      <c r="O38" s="31">
-        <v>1</v>
-      </c>
-      <c r="P38" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="35">
-        <v>7</v>
-      </c>
-      <c r="R38" s="37">
-        <v>16</v>
-      </c>
-      <c r="S38" s="39">
-        <v>-9</v>
-      </c>
-      <c r="T38" s="41">
-        <v>0</v>
-      </c>
-      <c r="U38" s="43">
-        <v>0</v>
-      </c>
-      <c r="V38" s="45">
-        <v>0</v>
-      </c>
       <c r="W38" s="47">
         <v>0</v>
       </c>
@@ -5758,22 +5758,22 @@
         <v>0</v>
       </c>
       <c r="Z38" s="53">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AA38" s="55">
-        <v>9</v>
+        <v>744</v>
       </c>
       <c r="AB38" s="57">
-        <v>-7</v>
+        <v>-525</v>
       </c>
       <c r="AC38" s="59">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="AD38" s="61">
-        <v>5</v>
+        <v>393</v>
       </c>
       <c r="AE38" s="63">
-        <v>-3</v>
+        <v>-276</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5785,16 +5785,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ38" s="73">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK38" s="75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL38" s="77">
-        <v>84</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="39">
@@ -5802,115 +5802,115 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
+        <v>1046</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1102</v>
+      </c>
+      <c r="D39" s="9">
+        <v>-56</v>
+      </c>
+      <c r="E39" s="11">
+        <v>6185</v>
+      </c>
+      <c r="F39" s="13">
+        <v>5093</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1092</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1227</v>
+      </c>
+      <c r="I39" s="19">
+        <v>2305</v>
+      </c>
+      <c r="J39" s="21">
+        <v>-1077</v>
+      </c>
+      <c r="K39" s="23">
+        <v>331</v>
+      </c>
+      <c r="L39" s="25">
+        <v>186</v>
+      </c>
+      <c r="M39" s="27">
+        <v>146</v>
+      </c>
+      <c r="N39" s="29">
+        <v>51</v>
+      </c>
+      <c r="O39" s="31">
+        <v>378</v>
+      </c>
+      <c r="P39" s="33">
+        <v>-327</v>
+      </c>
+      <c r="Q39" s="35">
+        <v>219</v>
+      </c>
+      <c r="R39" s="37">
+        <v>441</v>
+      </c>
+      <c r="S39" s="39">
+        <v>-223</v>
+      </c>
+      <c r="T39" s="41">
+        <v>0</v>
+      </c>
+      <c r="U39" s="43">
+        <v>0</v>
+      </c>
+      <c r="V39" s="45">
+        <v>0</v>
+      </c>
+      <c r="W39" s="47">
+        <v>0</v>
+      </c>
+      <c r="X39" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="53">
+        <v>530</v>
+      </c>
+      <c r="AA39" s="55">
+        <v>1191</v>
+      </c>
+      <c r="AB39" s="57">
+        <v>-662</v>
+      </c>
+      <c r="AC39" s="59">
+        <v>97</v>
+      </c>
+      <c r="AD39" s="61">
+        <v>109</v>
+      </c>
+      <c r="AE39" s="63">
+        <v>-12</v>
+      </c>
+      <c r="AF39" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="71">
+        <v>53</v>
+      </c>
+      <c r="AJ39" s="73">
         <v>12</v>
       </c>
-      <c r="C39" s="7">
-        <v>13</v>
-      </c>
-      <c r="D39" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="11">
-        <v>73</v>
-      </c>
-      <c r="F39" s="13">
-        <v>59</v>
-      </c>
-      <c r="G39" s="15">
-        <v>14</v>
-      </c>
-      <c r="H39" s="17">
-        <v>14</v>
-      </c>
-      <c r="I39" s="19">
-        <v>27</v>
-      </c>
-      <c r="J39" s="21">
-        <v>-13</v>
-      </c>
-      <c r="K39" s="23">
-        <v>4</v>
-      </c>
-      <c r="L39" s="25">
-        <v>2</v>
-      </c>
-      <c r="M39" s="27">
-        <v>2</v>
-      </c>
-      <c r="N39" s="29">
-        <v>1</v>
-      </c>
-      <c r="O39" s="31">
-        <v>5</v>
-      </c>
-      <c r="P39" s="33">
-        <v>-4</v>
-      </c>
-      <c r="Q39" s="35">
-        <v>2</v>
-      </c>
-      <c r="R39" s="37">
-        <v>6</v>
-      </c>
-      <c r="S39" s="39">
-        <v>-3</v>
-      </c>
-      <c r="T39" s="41">
-        <v>0</v>
-      </c>
-      <c r="U39" s="43">
-        <v>0</v>
-      </c>
-      <c r="V39" s="45">
-        <v>0</v>
-      </c>
-      <c r="W39" s="47">
-        <v>0</v>
-      </c>
-      <c r="X39" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="53">
-        <v>6</v>
-      </c>
-      <c r="AA39" s="55">
-        <v>14</v>
-      </c>
-      <c r="AB39" s="57">
-        <v>-8</v>
-      </c>
-      <c r="AC39" s="59">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="61">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="63">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="73">
-        <v>0</v>
-      </c>
       <c r="AK39" s="75">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AL39" s="77">
-        <v>100</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="40">
@@ -5918,115 +5918,115 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>12</v>
+        <v>1003</v>
       </c>
       <c r="C40" s="7">
-        <v>8</v>
+        <v>677</v>
       </c>
       <c r="D40" s="9">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="E40" s="11">
+        <v>3604</v>
+      </c>
+      <c r="F40" s="13">
+        <v>3967</v>
+      </c>
+      <c r="G40" s="15">
+        <v>-364</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1335</v>
+      </c>
+      <c r="I40" s="19">
+        <v>1341</v>
+      </c>
+      <c r="J40" s="21">
+        <v>-6</v>
+      </c>
+      <c r="K40" s="23">
+        <v>153</v>
+      </c>
+      <c r="L40" s="25">
+        <v>108</v>
+      </c>
+      <c r="M40" s="27">
+        <v>46</v>
+      </c>
+      <c r="N40" s="29">
+        <v>20</v>
+      </c>
+      <c r="O40" s="31">
+        <v>285</v>
+      </c>
+      <c r="P40" s="33">
+        <v>-265</v>
+      </c>
+      <c r="Q40" s="35">
+        <v>85</v>
+      </c>
+      <c r="R40" s="37">
+        <v>100</v>
+      </c>
+      <c r="S40" s="39">
+        <v>-15</v>
+      </c>
+      <c r="T40" s="41">
+        <v>0</v>
+      </c>
+      <c r="U40" s="43">
+        <v>0</v>
+      </c>
+      <c r="V40" s="45">
+        <v>0</v>
+      </c>
+      <c r="W40" s="47">
+        <v>0</v>
+      </c>
+      <c r="X40" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="53">
+        <v>993</v>
+      </c>
+      <c r="AA40" s="55">
+        <v>726</v>
+      </c>
+      <c r="AB40" s="57">
+        <v>268</v>
+      </c>
+      <c r="AC40" s="59">
+        <v>83</v>
+      </c>
+      <c r="AD40" s="61">
+        <v>122</v>
+      </c>
+      <c r="AE40" s="63">
+        <v>-39</v>
+      </c>
+      <c r="AF40" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="71">
+        <v>51</v>
+      </c>
+      <c r="AJ40" s="73">
+        <v>6</v>
+      </c>
+      <c r="AK40" s="75">
         <v>44</v>
       </c>
-      <c r="F40" s="13">
-        <v>48</v>
-      </c>
-      <c r="G40" s="15">
-        <v>-4</v>
-      </c>
-      <c r="H40" s="17">
-        <v>16</v>
-      </c>
-      <c r="I40" s="19">
-        <v>16</v>
-      </c>
-      <c r="J40" s="21">
-        <v>0</v>
-      </c>
-      <c r="K40" s="23">
-        <v>2</v>
-      </c>
-      <c r="L40" s="25">
-        <v>1</v>
-      </c>
-      <c r="M40" s="27">
-        <v>1</v>
-      </c>
-      <c r="N40" s="29">
-        <v>0</v>
-      </c>
-      <c r="O40" s="31">
-        <v>3</v>
-      </c>
-      <c r="P40" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q40" s="35">
-        <v>1</v>
-      </c>
-      <c r="R40" s="37">
-        <v>1</v>
-      </c>
-      <c r="S40" s="39">
-        <v>0</v>
-      </c>
-      <c r="T40" s="41">
-        <v>0</v>
-      </c>
-      <c r="U40" s="43">
-        <v>0</v>
-      </c>
-      <c r="V40" s="45">
-        <v>0</v>
-      </c>
-      <c r="W40" s="47">
-        <v>0</v>
-      </c>
-      <c r="X40" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="53">
-        <v>12</v>
-      </c>
-      <c r="AA40" s="55">
-        <v>9</v>
-      </c>
-      <c r="AB40" s="57">
-        <v>3</v>
-      </c>
-      <c r="AC40" s="59">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="61">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="63">
-        <v>-1</v>
-      </c>
-      <c r="AF40" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="75">
-        <v>1</v>
-      </c>
       <c r="AL40" s="77">
-        <v>73</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="41">
@@ -6034,58 +6034,58 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
+        <v>2634</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1860</v>
+      </c>
+      <c r="D41" s="9">
+        <v>775</v>
+      </c>
+      <c r="E41" s="11">
+        <v>3728</v>
+      </c>
+      <c r="F41" s="13">
+        <v>5112</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-1383</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1594</v>
+      </c>
+      <c r="I41" s="19">
+        <v>1341</v>
+      </c>
+      <c r="J41" s="21">
+        <v>252</v>
+      </c>
+      <c r="K41" s="23">
+        <v>657</v>
+      </c>
+      <c r="L41" s="25">
+        <v>100</v>
+      </c>
+      <c r="M41" s="27">
+        <v>557</v>
+      </c>
+      <c r="N41" s="29">
         <v>32</v>
       </c>
-      <c r="C41" s="7">
-        <v>22</v>
-      </c>
-      <c r="D41" s="9">
-        <v>9</v>
-      </c>
-      <c r="E41" s="11">
-        <v>45</v>
-      </c>
-      <c r="F41" s="13">
-        <v>61</v>
-      </c>
-      <c r="G41" s="15">
-        <v>-16</v>
-      </c>
-      <c r="H41" s="17">
-        <v>19</v>
-      </c>
-      <c r="I41" s="19">
-        <v>16</v>
-      </c>
-      <c r="J41" s="21">
-        <v>3</v>
-      </c>
-      <c r="K41" s="23">
-        <v>8</v>
-      </c>
-      <c r="L41" s="25">
-        <v>1</v>
-      </c>
-      <c r="M41" s="27">
-        <v>7</v>
-      </c>
-      <c r="N41" s="29">
-        <v>0</v>
-      </c>
       <c r="O41" s="31">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="P41" s="33">
-        <v>-4</v>
+        <v>-352</v>
       </c>
       <c r="Q41" s="35">
-        <v>5</v>
+        <v>438</v>
       </c>
       <c r="R41" s="37">
-        <v>5</v>
+        <v>372</v>
       </c>
       <c r="S41" s="39">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="T41" s="41">
         <v>0</v>
@@ -6106,22 +6106,22 @@
         <v>0</v>
       </c>
       <c r="Z41" s="53">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="AA41" s="55">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="AB41" s="57">
-        <v>-2</v>
+        <v>-139</v>
       </c>
       <c r="AC41" s="59">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="AD41" s="61">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="AE41" s="63">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6133,16 +6133,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="AJ41" s="73">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK41" s="75">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="AL41" s="77">
-        <v>100</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="42">
@@ -6150,115 +6150,115 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
+        <v>2101</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1934</v>
+      </c>
+      <c r="D42" s="9">
+        <v>167</v>
+      </c>
+      <c r="E42" s="11">
+        <v>7131</v>
+      </c>
+      <c r="F42" s="13">
+        <v>7536</v>
+      </c>
+      <c r="G42" s="15">
+        <v>-405</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1842</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1624</v>
+      </c>
+      <c r="J42" s="21">
+        <v>218</v>
+      </c>
+      <c r="K42" s="23">
+        <v>716</v>
+      </c>
+      <c r="L42" s="25">
+        <v>319</v>
+      </c>
+      <c r="M42" s="27">
+        <v>398</v>
+      </c>
+      <c r="N42" s="29">
+        <v>550</v>
+      </c>
+      <c r="O42" s="31">
+        <v>316</v>
+      </c>
+      <c r="P42" s="33">
+        <v>234</v>
+      </c>
+      <c r="Q42" s="35">
+        <v>148</v>
+      </c>
+      <c r="R42" s="37">
+        <v>268</v>
+      </c>
+      <c r="S42" s="39">
+        <v>-120</v>
+      </c>
+      <c r="T42" s="41">
+        <v>0</v>
+      </c>
+      <c r="U42" s="43">
+        <v>0</v>
+      </c>
+      <c r="V42" s="45">
+        <v>0</v>
+      </c>
+      <c r="W42" s="47">
+        <v>0</v>
+      </c>
+      <c r="X42" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="53">
+        <v>428</v>
+      </c>
+      <c r="AA42" s="55">
+        <v>487</v>
+      </c>
+      <c r="AB42" s="57">
+        <v>-59</v>
+      </c>
+      <c r="AC42" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="61">
+        <v>235</v>
+      </c>
+      <c r="AE42" s="63">
+        <v>-235</v>
+      </c>
+      <c r="AF42" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="71">
         <v>24</v>
       </c>
-      <c r="C42" s="7">
-        <v>23</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2</v>
-      </c>
-      <c r="E42" s="11">
-        <v>84</v>
-      </c>
-      <c r="F42" s="13">
-        <v>88</v>
-      </c>
-      <c r="G42" s="15">
-        <v>-4</v>
-      </c>
-      <c r="H42" s="17">
+      <c r="AJ42" s="73">
+        <v>4</v>
+      </c>
+      <c r="AK42" s="75">
         <v>21</v>
       </c>
-      <c r="I42" s="19">
-        <v>19</v>
-      </c>
-      <c r="J42" s="21">
-        <v>2</v>
-      </c>
-      <c r="K42" s="23">
-        <v>8</v>
-      </c>
-      <c r="L42" s="25">
-        <v>4</v>
-      </c>
-      <c r="M42" s="27">
-        <v>5</v>
-      </c>
-      <c r="N42" s="29">
-        <v>6</v>
-      </c>
-      <c r="O42" s="31">
-        <v>4</v>
-      </c>
-      <c r="P42" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="35">
-        <v>2</v>
-      </c>
-      <c r="R42" s="37">
-        <v>3</v>
-      </c>
-      <c r="S42" s="39">
-        <v>-1</v>
-      </c>
-      <c r="T42" s="41">
-        <v>0</v>
-      </c>
-      <c r="U42" s="43">
-        <v>0</v>
-      </c>
-      <c r="V42" s="45">
-        <v>0</v>
-      </c>
-      <c r="W42" s="47">
-        <v>0</v>
-      </c>
-      <c r="X42" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="53">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="55">
-        <v>6</v>
-      </c>
-      <c r="AB42" s="57">
-        <v>-1</v>
-      </c>
-      <c r="AC42" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="61">
-        <v>3</v>
-      </c>
-      <c r="AE42" s="63">
-        <v>-3</v>
-      </c>
-      <c r="AF42" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="71">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="73">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="75">
-        <v>0</v>
-      </c>
       <c r="AL42" s="77">
-        <v>130</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="43">
@@ -6266,58 +6266,58 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>37</v>
+        <v>2994</v>
       </c>
       <c r="C43" s="7">
-        <v>35</v>
+        <v>2854</v>
       </c>
       <c r="D43" s="9">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="E43" s="11">
-        <v>281</v>
+        <v>23628</v>
       </c>
       <c r="F43" s="13">
-        <v>267</v>
+        <v>22660</v>
       </c>
       <c r="G43" s="15">
-        <v>13</v>
+        <v>968</v>
       </c>
       <c r="H43" s="17">
-        <v>23</v>
+        <v>1868</v>
       </c>
       <c r="I43" s="19">
+        <v>2968</v>
+      </c>
+      <c r="J43" s="21">
+        <v>-1100</v>
+      </c>
+      <c r="K43" s="23">
+        <v>273</v>
+      </c>
+      <c r="L43" s="25">
+        <v>235</v>
+      </c>
+      <c r="M43" s="27">
         <v>38</v>
       </c>
-      <c r="J43" s="21">
-        <v>-16</v>
-      </c>
-      <c r="K43" s="23">
-        <v>4</v>
-      </c>
-      <c r="L43" s="25">
-        <v>3</v>
-      </c>
-      <c r="M43" s="27">
-        <v>1</v>
-      </c>
       <c r="N43" s="29">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="O43" s="31">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="P43" s="33">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="Q43" s="35">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="R43" s="37">
-        <v>8</v>
+        <v>585</v>
       </c>
       <c r="S43" s="39">
-        <v>-6</v>
+        <v>-452</v>
       </c>
       <c r="T43" s="41">
         <v>0</v>
@@ -6338,22 +6338,22 @@
         <v>0</v>
       </c>
       <c r="Z43" s="53">
-        <v>15</v>
+        <v>1236</v>
       </c>
       <c r="AA43" s="55">
-        <v>10</v>
+        <v>856</v>
       </c>
       <c r="AB43" s="57">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="AC43" s="59">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="AD43" s="61">
-        <v>15</v>
+        <v>1152</v>
       </c>
       <c r="AE43" s="63">
-        <v>-14</v>
+        <v>-1059</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6365,16 +6365,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="AJ43" s="73">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="AK43" s="75">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AL43" s="77">
-        <v>342</v>
+        <v>28544</v>
       </c>
     </row>
     <row r="44">
@@ -6382,107 +6382,107 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>18</v>
+        <v>1095</v>
       </c>
       <c r="C44" s="7">
-        <v>17</v>
+        <v>1062</v>
       </c>
       <c r="D44" s="9">
+        <v>33</v>
+      </c>
+      <c r="E44" s="11">
+        <v>6036</v>
+      </c>
+      <c r="F44" s="13">
+        <v>4692</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1344</v>
+      </c>
+      <c r="H44" s="17">
+        <v>511</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1889</v>
+      </c>
+      <c r="J44" s="21">
+        <v>-1377</v>
+      </c>
+      <c r="K44" s="23">
+        <v>143</v>
+      </c>
+      <c r="L44" s="25">
+        <v>145</v>
+      </c>
+      <c r="M44" s="27">
+        <v>-2</v>
+      </c>
+      <c r="N44" s="29">
+        <v>59</v>
+      </c>
+      <c r="O44" s="31">
+        <v>46</v>
+      </c>
+      <c r="P44" s="33">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="35">
+        <v>66</v>
+      </c>
+      <c r="R44" s="37">
+        <v>968</v>
+      </c>
+      <c r="S44" s="39">
+        <v>-902</v>
+      </c>
+      <c r="T44" s="41">
+        <v>0</v>
+      </c>
+      <c r="U44" s="43">
+        <v>0</v>
+      </c>
+      <c r="V44" s="45">
+        <v>0</v>
+      </c>
+      <c r="W44" s="47">
+        <v>0</v>
+      </c>
+      <c r="X44" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="53">
+        <v>175</v>
+      </c>
+      <c r="AA44" s="55">
+        <v>356</v>
+      </c>
+      <c r="AB44" s="57">
+        <v>-180</v>
+      </c>
+      <c r="AC44" s="59">
+        <v>68</v>
+      </c>
+      <c r="AD44" s="61">
+        <v>374</v>
+      </c>
+      <c r="AE44" s="63">
+        <v>-306</v>
+      </c>
+      <c r="AF44" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="71">
         <v>1</v>
       </c>
-      <c r="E44" s="11">
-        <v>96</v>
-      </c>
-      <c r="F44" s="13">
-        <v>73</v>
-      </c>
-      <c r="G44" s="15">
-        <v>23</v>
-      </c>
-      <c r="H44" s="17">
-        <v>7</v>
-      </c>
-      <c r="I44" s="19">
-        <v>31</v>
-      </c>
-      <c r="J44" s="21">
-        <v>-24</v>
-      </c>
-      <c r="K44" s="23">
-        <v>2</v>
-      </c>
-      <c r="L44" s="25">
-        <v>2</v>
-      </c>
-      <c r="M44" s="27">
-        <v>0</v>
-      </c>
-      <c r="N44" s="29">
-        <v>1</v>
-      </c>
-      <c r="O44" s="31">
-        <v>1</v>
-      </c>
-      <c r="P44" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="35">
-        <v>1</v>
-      </c>
-      <c r="R44" s="37">
-        <v>16</v>
-      </c>
-      <c r="S44" s="39">
-        <v>-15</v>
-      </c>
-      <c r="T44" s="41">
-        <v>0</v>
-      </c>
-      <c r="U44" s="43">
-        <v>0</v>
-      </c>
-      <c r="V44" s="45">
-        <v>0</v>
-      </c>
-      <c r="W44" s="47">
-        <v>0</v>
-      </c>
-      <c r="X44" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="53">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="55">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="57">
-        <v>-3</v>
-      </c>
-      <c r="AC44" s="59">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="61">
-        <v>7</v>
-      </c>
-      <c r="AE44" s="63">
-        <v>-6</v>
-      </c>
-      <c r="AF44" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="71">
-        <v>0</v>
-      </c>
       <c r="AJ44" s="73">
         <v>0</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="77">
-        <v>121</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="45">
@@ -6498,58 +6498,58 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>17</v>
+        <v>1302</v>
       </c>
       <c r="C45" s="7">
-        <v>10</v>
+        <v>804</v>
       </c>
       <c r="D45" s="9">
-        <v>6</v>
+        <v>498</v>
       </c>
       <c r="E45" s="11">
-        <v>58</v>
+        <v>4494</v>
       </c>
       <c r="F45" s="13">
-        <v>38</v>
+        <v>2942</v>
       </c>
       <c r="G45" s="15">
-        <v>20</v>
+        <v>1552</v>
       </c>
       <c r="H45" s="17">
-        <v>14</v>
+        <v>1136</v>
       </c>
       <c r="I45" s="19">
-        <v>38</v>
+        <v>2955</v>
       </c>
       <c r="J45" s="21">
-        <v>-23</v>
+        <v>-1818</v>
       </c>
       <c r="K45" s="23">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="L45" s="25">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="M45" s="27">
-        <v>-2</v>
+        <v>-154</v>
       </c>
       <c r="N45" s="29">
-        <v>6</v>
+        <v>485</v>
       </c>
       <c r="O45" s="31">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="P45" s="33">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="Q45" s="35">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="R45" s="37">
-        <v>10</v>
+        <v>760</v>
       </c>
       <c r="S45" s="39">
-        <v>-6</v>
+        <v>-437</v>
       </c>
       <c r="T45" s="41">
         <v>0</v>
@@ -6570,22 +6570,22 @@
         <v>0</v>
       </c>
       <c r="Z45" s="53">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="AA45" s="55">
-        <v>17</v>
+        <v>1301</v>
       </c>
       <c r="AB45" s="57">
-        <v>-15</v>
+        <v>-1141</v>
       </c>
       <c r="AC45" s="59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD45" s="61">
-        <v>5</v>
+        <v>401</v>
       </c>
       <c r="AE45" s="63">
-        <v>-5</v>
+        <v>-382</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6597,16 +6597,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ45" s="73">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="AK45" s="75">
-        <v>-3</v>
+        <v>-231</v>
       </c>
       <c r="AL45" s="77">
-        <v>89</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="46">
@@ -6614,115 +6614,115 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="C46" s="7">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="D46" s="9">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="E46" s="11">
-        <v>42</v>
+        <v>3671</v>
       </c>
       <c r="F46" s="13">
-        <v>26</v>
+        <v>2295</v>
       </c>
       <c r="G46" s="15">
-        <v>16</v>
+        <v>1376</v>
       </c>
       <c r="H46" s="17">
+        <v>359</v>
+      </c>
+      <c r="I46" s="19">
+        <v>1870</v>
+      </c>
+      <c r="J46" s="21">
+        <v>-1511</v>
+      </c>
+      <c r="K46" s="23">
+        <v>264</v>
+      </c>
+      <c r="L46" s="25">
+        <v>206</v>
+      </c>
+      <c r="M46" s="27">
+        <v>58</v>
+      </c>
+      <c r="N46" s="29">
+        <v>6</v>
+      </c>
+      <c r="O46" s="31">
+        <v>289</v>
+      </c>
+      <c r="P46" s="33">
+        <v>-282</v>
+      </c>
+      <c r="Q46" s="35">
+        <v>7</v>
+      </c>
+      <c r="R46" s="37">
+        <v>241</v>
+      </c>
+      <c r="S46" s="39">
+        <v>-234</v>
+      </c>
+      <c r="T46" s="41">
+        <v>0</v>
+      </c>
+      <c r="U46" s="43">
+        <v>0</v>
+      </c>
+      <c r="V46" s="45">
+        <v>0</v>
+      </c>
+      <c r="W46" s="47">
+        <v>0</v>
+      </c>
+      <c r="X46" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="53">
+        <v>32</v>
+      </c>
+      <c r="AA46" s="55">
+        <v>1131</v>
+      </c>
+      <c r="AB46" s="57">
+        <v>-1098</v>
+      </c>
+      <c r="AC46" s="59">
+        <v>50</v>
+      </c>
+      <c r="AD46" s="61">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="63">
+        <v>45</v>
+      </c>
+      <c r="AF46" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="71">
+        <v>158</v>
+      </c>
+      <c r="AJ46" s="73">
         <v>4</v>
       </c>
-      <c r="I46" s="19">
-        <v>21</v>
-      </c>
-      <c r="J46" s="21">
-        <v>-17</v>
-      </c>
-      <c r="K46" s="23">
-        <v>3</v>
-      </c>
-      <c r="L46" s="25">
-        <v>2</v>
-      </c>
-      <c r="M46" s="27">
-        <v>1</v>
-      </c>
-      <c r="N46" s="29">
-        <v>0</v>
-      </c>
-      <c r="O46" s="31">
-        <v>3</v>
-      </c>
-      <c r="P46" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q46" s="35">
-        <v>0</v>
-      </c>
-      <c r="R46" s="37">
-        <v>3</v>
-      </c>
-      <c r="S46" s="39">
-        <v>-3</v>
-      </c>
-      <c r="T46" s="41">
-        <v>0</v>
-      </c>
-      <c r="U46" s="43">
-        <v>0</v>
-      </c>
-      <c r="V46" s="45">
-        <v>0</v>
-      </c>
-      <c r="W46" s="47">
-        <v>0</v>
-      </c>
-      <c r="X46" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="55">
-        <v>13</v>
-      </c>
-      <c r="AB46" s="57">
-        <v>-13</v>
-      </c>
-      <c r="AC46" s="59">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="61">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="63">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="71">
-        <v>2</v>
-      </c>
-      <c r="AJ46" s="73">
-        <v>0</v>
-      </c>
       <c r="AK46" s="75">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="AL46" s="77">
-        <v>50</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="47">
@@ -6730,67 +6730,67 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>5</v>
+        <v>511</v>
       </c>
       <c r="C47" s="7">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="D47" s="9">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="E47" s="11">
-        <v>19</v>
+        <v>1811</v>
       </c>
       <c r="F47" s="13">
-        <v>16</v>
+        <v>1537</v>
       </c>
       <c r="G47" s="15">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="H47" s="17">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="I47" s="19">
-        <v>6</v>
+        <v>561</v>
       </c>
       <c r="J47" s="21">
-        <v>-5</v>
+        <v>-469</v>
       </c>
       <c r="K47" s="23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L47" s="25">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="M47" s="27">
-        <v>-1</v>
+        <v>-117</v>
       </c>
       <c r="N47" s="29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O47" s="31">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="P47" s="33">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="Q47" s="35">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R47" s="37">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="S47" s="39">
-        <v>-1</v>
+        <v>-48</v>
       </c>
       <c r="T47" s="41">
         <v>0</v>
       </c>
       <c r="U47" s="43">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V47" s="45">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="W47" s="47">
         <v>0</v>
@@ -6802,22 +6802,22 @@
         <v>0</v>
       </c>
       <c r="Z47" s="53">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA47" s="55">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="AB47" s="57">
-        <v>-2</v>
+        <v>-204</v>
       </c>
       <c r="AC47" s="59">
         <v>0</v>
       </c>
       <c r="AD47" s="61">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE47" s="63">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6829,16 +6829,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="AJ47" s="73">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AK47" s="75">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="AL47" s="77">
-        <v>26</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="48">
@@ -6846,67 +6846,67 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
+        <v>418</v>
+      </c>
+      <c r="C48" s="7">
+        <v>602</v>
+      </c>
+      <c r="D48" s="9">
+        <v>-184</v>
+      </c>
+      <c r="E48" s="11">
+        <v>2618</v>
+      </c>
+      <c r="F48" s="13">
+        <v>2122</v>
+      </c>
+      <c r="G48" s="15">
+        <v>495</v>
+      </c>
+      <c r="H48" s="17">
+        <v>557</v>
+      </c>
+      <c r="I48" s="19">
+        <v>1036</v>
+      </c>
+      <c r="J48" s="21">
+        <v>-480</v>
+      </c>
+      <c r="K48" s="23">
+        <v>83</v>
+      </c>
+      <c r="L48" s="25">
+        <v>90</v>
+      </c>
+      <c r="M48" s="27">
+        <v>-7</v>
+      </c>
+      <c r="N48" s="29">
         <v>4</v>
       </c>
-      <c r="C48" s="7">
-        <v>6</v>
-      </c>
-      <c r="D48" s="9">
-        <v>-2</v>
-      </c>
-      <c r="E48" s="11">
-        <v>27</v>
-      </c>
-      <c r="F48" s="13">
-        <v>22</v>
-      </c>
-      <c r="G48" s="15">
+      <c r="O48" s="31">
+        <v>47</v>
+      </c>
+      <c r="P48" s="33">
+        <v>-43</v>
+      </c>
+      <c r="Q48" s="35">
+        <v>93</v>
+      </c>
+      <c r="R48" s="37">
+        <v>215</v>
+      </c>
+      <c r="S48" s="39">
+        <v>-122</v>
+      </c>
+      <c r="T48" s="41">
         <v>5</v>
       </c>
-      <c r="H48" s="17">
-        <v>6</v>
-      </c>
-      <c r="I48" s="19">
-        <v>11</v>
-      </c>
-      <c r="J48" s="21">
-        <v>-5</v>
-      </c>
-      <c r="K48" s="23">
-        <v>1</v>
-      </c>
-      <c r="L48" s="25">
-        <v>1</v>
-      </c>
-      <c r="M48" s="27">
-        <v>0</v>
-      </c>
-      <c r="N48" s="29">
-        <v>0</v>
-      </c>
-      <c r="O48" s="31">
-        <v>0</v>
-      </c>
-      <c r="P48" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="35">
-        <v>1</v>
-      </c>
-      <c r="R48" s="37">
-        <v>2</v>
-      </c>
-      <c r="S48" s="39">
-        <v>-1</v>
-      </c>
-      <c r="T48" s="41">
-        <v>0</v>
-      </c>
       <c r="U48" s="43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V48" s="45">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="W48" s="47">
         <v>0</v>
@@ -6918,22 +6918,22 @@
         <v>0</v>
       </c>
       <c r="Z48" s="53">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="AA48" s="55">
-        <v>6</v>
+        <v>615</v>
       </c>
       <c r="AB48" s="57">
-        <v>-4</v>
+        <v>-378</v>
       </c>
       <c r="AC48" s="59">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="AD48" s="61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="AE48" s="63">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6945,16 +6945,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="AJ48" s="73">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK48" s="75">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="AL48" s="77">
-        <v>39</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="49">
@@ -6962,67 +6962,67 @@
         <v>61</v>
       </c>
       <c r="B49" s="5">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C49" s="7">
-        <v>8</v>
+        <v>750</v>
       </c>
       <c r="D49" s="9">
-        <v>-2</v>
+        <v>-178</v>
       </c>
       <c r="E49" s="11">
-        <v>33</v>
+        <v>3267</v>
       </c>
       <c r="F49" s="13">
-        <v>24</v>
+        <v>2401</v>
       </c>
       <c r="G49" s="15">
-        <v>9</v>
+        <v>866</v>
       </c>
       <c r="H49" s="17">
-        <v>8</v>
+        <v>834</v>
       </c>
       <c r="I49" s="19">
+        <v>1739</v>
+      </c>
+      <c r="J49" s="21">
+        <v>-905</v>
+      </c>
+      <c r="K49" s="23">
+        <v>34</v>
+      </c>
+      <c r="L49" s="25">
+        <v>81</v>
+      </c>
+      <c r="M49" s="27">
+        <v>-47</v>
+      </c>
+      <c r="N49" s="29">
+        <v>26</v>
+      </c>
+      <c r="O49" s="31">
+        <v>676</v>
+      </c>
+      <c r="P49" s="33">
+        <v>-650</v>
+      </c>
+      <c r="Q49" s="35">
+        <v>100</v>
+      </c>
+      <c r="R49" s="37">
+        <v>487</v>
+      </c>
+      <c r="S49" s="39">
+        <v>-387</v>
+      </c>
+      <c r="T49" s="41">
+        <v>30</v>
+      </c>
+      <c r="U49" s="43">
         <v>17</v>
       </c>
-      <c r="J49" s="21">
-        <v>-9</v>
-      </c>
-      <c r="K49" s="23">
-        <v>0</v>
-      </c>
-      <c r="L49" s="25">
-        <v>1</v>
-      </c>
-      <c r="M49" s="27">
-        <v>0</v>
-      </c>
-      <c r="N49" s="29">
-        <v>0</v>
-      </c>
-      <c r="O49" s="31">
-        <v>7</v>
-      </c>
-      <c r="P49" s="33">
-        <v>-6</v>
-      </c>
-      <c r="Q49" s="35">
-        <v>1</v>
-      </c>
-      <c r="R49" s="37">
-        <v>5</v>
-      </c>
-      <c r="S49" s="39">
-        <v>-4</v>
-      </c>
-      <c r="T49" s="41">
-        <v>0</v>
-      </c>
-      <c r="U49" s="43">
-        <v>0</v>
-      </c>
       <c r="V49" s="45">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W49" s="47">
         <v>0</v>
@@ -7034,22 +7034,22 @@
         <v>0</v>
       </c>
       <c r="Z49" s="53">
-        <v>5</v>
+        <v>512</v>
       </c>
       <c r="AA49" s="55">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="AB49" s="57">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="AC49" s="59">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="AD49" s="61">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="AE49" s="63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF49" s="65">
         <v>0</v>
@@ -7061,16 +7061,16 @@
         <v>0</v>
       </c>
       <c r="AI49" s="71">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="AJ49" s="73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK49" s="75">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="AL49" s="77">
-        <v>49</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="50">
@@ -7078,67 +7078,67 @@
         <v>62</v>
       </c>
       <c r="B50" s="5">
-        <v>6</v>
+        <v>661</v>
       </c>
       <c r="C50" s="7">
-        <v>5</v>
+        <v>493</v>
       </c>
       <c r="D50" s="9">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="E50" s="11">
-        <v>44</v>
+        <v>4552</v>
       </c>
       <c r="F50" s="13">
-        <v>36</v>
+        <v>3715</v>
       </c>
       <c r="G50" s="15">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="H50" s="17">
-        <v>13</v>
+        <v>1348</v>
       </c>
       <c r="I50" s="19">
-        <v>31</v>
+        <v>3116</v>
       </c>
       <c r="J50" s="21">
-        <v>-18</v>
+        <v>-1769</v>
       </c>
       <c r="K50" s="23">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="L50" s="25">
-        <v>6</v>
+        <v>552</v>
       </c>
       <c r="M50" s="27">
-        <v>-4</v>
+        <v>-424</v>
       </c>
       <c r="N50" s="29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O50" s="31">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="P50" s="33">
-        <v>-4</v>
+        <v>-357</v>
       </c>
       <c r="Q50" s="35">
-        <v>6</v>
+        <v>621</v>
       </c>
       <c r="R50" s="37">
-        <v>8</v>
+        <v>760</v>
       </c>
       <c r="S50" s="39">
-        <v>-2</v>
+        <v>-140</v>
       </c>
       <c r="T50" s="41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U50" s="43">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="V50" s="45">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="W50" s="47">
         <v>0</v>
@@ -7150,22 +7150,22 @@
         <v>0</v>
       </c>
       <c r="Z50" s="53">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="AA50" s="55">
-        <v>7</v>
+        <v>698</v>
       </c>
       <c r="AB50" s="57">
-        <v>-3</v>
+        <v>-221</v>
       </c>
       <c r="AC50" s="59">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="AD50" s="61">
-        <v>7</v>
+        <v>681</v>
       </c>
       <c r="AE50" s="63">
-        <v>-6</v>
+        <v>-580</v>
       </c>
       <c r="AF50" s="65">
         <v>0</v>
@@ -7177,16 +7177,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="71">
-        <v>8</v>
+        <v>764</v>
       </c>
       <c r="AJ50" s="73">
         <v>0</v>
       </c>
       <c r="AK50" s="75">
-        <v>8</v>
+        <v>764</v>
       </c>
       <c r="AL50" s="77">
-        <v>71</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="51">
@@ -7194,94 +7194,94 @@
         <v>63</v>
       </c>
       <c r="B51" s="5">
-        <v>5</v>
+        <v>509</v>
       </c>
       <c r="C51" s="7">
-        <v>10</v>
+        <v>987</v>
       </c>
       <c r="D51" s="9">
-        <v>-5</v>
+        <v>-479</v>
       </c>
       <c r="E51" s="11">
-        <v>26</v>
+        <v>2617</v>
       </c>
       <c r="F51" s="13">
-        <v>20</v>
+        <v>2024</v>
       </c>
       <c r="G51" s="15">
-        <v>6</v>
+        <v>594</v>
       </c>
       <c r="H51" s="17">
-        <v>9</v>
+        <v>865</v>
       </c>
       <c r="I51" s="19">
-        <v>15</v>
+        <v>1459</v>
       </c>
       <c r="J51" s="21">
-        <v>-6</v>
+        <v>-593</v>
       </c>
       <c r="K51" s="23">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="L51" s="25">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="M51" s="27">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="N51" s="29">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="O51" s="31">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="P51" s="33">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="Q51" s="35">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="R51" s="37">
-        <v>6</v>
+        <v>609</v>
       </c>
       <c r="S51" s="39">
-        <v>-4</v>
+        <v>-391</v>
       </c>
       <c r="T51" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U51" s="43">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="V51" s="45">
-        <v>-1</v>
+        <v>-93</v>
       </c>
       <c r="W51" s="47">
         <v>0</v>
       </c>
       <c r="X51" s="49">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y51" s="51">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="Z51" s="53">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="AA51" s="55">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="AB51" s="57">
-        <v>-2</v>
+        <v>-140</v>
       </c>
       <c r="AC51" s="59">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD51" s="61">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AE51" s="63">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AF51" s="65">
         <v>0</v>
@@ -7293,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="AI51" s="71">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="AJ51" s="73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK51" s="75">
-        <v>5</v>
+        <v>478</v>
       </c>
       <c r="AL51" s="77">
-        <v>45</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="52">
@@ -7310,58 +7310,58 @@
         <v>64</v>
       </c>
       <c r="B52" s="5">
-        <v>6</v>
+        <v>721</v>
       </c>
       <c r="C52" s="7">
-        <v>6</v>
+        <v>695</v>
       </c>
       <c r="D52" s="9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E52" s="11">
-        <v>27</v>
+        <v>3235</v>
       </c>
       <c r="F52" s="13">
-        <v>21</v>
+        <v>2511</v>
       </c>
       <c r="G52" s="15">
-        <v>6</v>
+        <v>725</v>
       </c>
       <c r="H52" s="17">
-        <v>10</v>
+        <v>1173</v>
       </c>
       <c r="I52" s="19">
-        <v>21</v>
+        <v>2521</v>
       </c>
       <c r="J52" s="21">
-        <v>-12</v>
+        <v>-1349</v>
       </c>
       <c r="K52" s="23">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="L52" s="25">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="M52" s="27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N52" s="29">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="O52" s="31">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="P52" s="33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q52" s="35">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="R52" s="37">
-        <v>5</v>
+        <v>628</v>
       </c>
       <c r="S52" s="39">
-        <v>-4</v>
+        <v>-462</v>
       </c>
       <c r="T52" s="41">
         <v>0</v>
@@ -7382,43 +7382,43 @@
         <v>0</v>
       </c>
       <c r="Z52" s="53">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="AA52" s="55">
-        <v>13</v>
+        <v>1598</v>
       </c>
       <c r="AB52" s="57">
-        <v>-11</v>
+        <v>-1383</v>
       </c>
       <c r="AC52" s="59">
+        <v>545</v>
+      </c>
+      <c r="AD52" s="61">
+        <v>73</v>
+      </c>
+      <c r="AE52" s="63">
+        <v>473</v>
+      </c>
+      <c r="AF52" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="71">
+        <v>603</v>
+      </c>
+      <c r="AJ52" s="73">
         <v>4</v>
       </c>
-      <c r="AD52" s="61">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="63">
-        <v>4</v>
-      </c>
-      <c r="AF52" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="71">
-        <v>5</v>
-      </c>
-      <c r="AJ52" s="73">
-        <v>0</v>
-      </c>
       <c r="AK52" s="75">
-        <v>5</v>
+        <v>599</v>
       </c>
       <c r="AL52" s="77">
-        <v>48</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="53">
@@ -7426,58 +7426,58 @@
         <v>65</v>
       </c>
       <c r="B53" s="5">
-        <v>9</v>
+        <v>1224</v>
       </c>
       <c r="C53" s="7">
-        <v>7</v>
+        <v>923</v>
       </c>
       <c r="D53" s="9">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="E53" s="11">
-        <v>32</v>
+        <v>4173</v>
       </c>
       <c r="F53" s="13">
-        <v>29</v>
+        <v>3813</v>
       </c>
       <c r="G53" s="15">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="H53" s="17">
-        <v>27</v>
+        <v>3523</v>
       </c>
       <c r="I53" s="19">
-        <v>37</v>
+        <v>4918</v>
       </c>
       <c r="J53" s="21">
-        <v>-11</v>
+        <v>-1395</v>
       </c>
       <c r="K53" s="23">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="L53" s="25">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="M53" s="27">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="N53" s="29">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O53" s="31">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="P53" s="33">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="Q53" s="35">
-        <v>5</v>
+        <v>654</v>
       </c>
       <c r="R53" s="37">
-        <v>6</v>
+        <v>789</v>
       </c>
       <c r="S53" s="39">
-        <v>-1</v>
+        <v>-135</v>
       </c>
       <c r="T53" s="41">
         <v>0</v>
@@ -7498,22 +7498,22 @@
         <v>0</v>
       </c>
       <c r="Z53" s="53">
-        <v>18</v>
+        <v>2397</v>
       </c>
       <c r="AA53" s="55">
-        <v>23</v>
+        <v>3039</v>
       </c>
       <c r="AB53" s="57">
-        <v>-5</v>
+        <v>-642</v>
       </c>
       <c r="AC53" s="59">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="AD53" s="61">
-        <v>6</v>
+        <v>833</v>
       </c>
       <c r="AE53" s="63">
-        <v>-4</v>
+        <v>-554</v>
       </c>
       <c r="AF53" s="65">
         <v>0</v>
@@ -7525,16 +7525,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="71">
-        <v>6</v>
+        <v>820</v>
       </c>
       <c r="AJ53" s="73">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="AK53" s="75">
-        <v>6</v>
+        <v>734</v>
       </c>
       <c r="AL53" s="77">
-        <v>74</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="54">
@@ -7542,58 +7542,58 @@
         <v>66</v>
       </c>
       <c r="B54" s="5">
-        <v>7</v>
+        <v>959</v>
       </c>
       <c r="C54" s="7">
-        <v>8</v>
+        <v>1046</v>
       </c>
       <c r="D54" s="9">
-        <v>-1</v>
+        <v>-87</v>
       </c>
       <c r="E54" s="11">
-        <v>39</v>
+        <v>5413</v>
       </c>
       <c r="F54" s="13">
-        <v>44</v>
+        <v>6046</v>
       </c>
       <c r="G54" s="15">
-        <v>-4</v>
+        <v>-632</v>
       </c>
       <c r="H54" s="17">
-        <v>24</v>
+        <v>3424</v>
       </c>
       <c r="I54" s="19">
-        <v>23</v>
+        <v>3253</v>
       </c>
       <c r="J54" s="21">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="K54" s="23">
-        <v>3</v>
+        <v>435</v>
       </c>
       <c r="L54" s="25">
-        <v>4</v>
+        <v>609</v>
       </c>
       <c r="M54" s="27">
-        <v>-1</v>
+        <v>-175</v>
       </c>
       <c r="N54" s="29">
-        <v>3</v>
+        <v>462</v>
       </c>
       <c r="O54" s="31">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="P54" s="33">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="Q54" s="35">
-        <v>11</v>
+        <v>1547</v>
       </c>
       <c r="R54" s="37">
-        <v>4</v>
+        <v>580</v>
       </c>
       <c r="S54" s="39">
-        <v>7</v>
+        <v>967</v>
       </c>
       <c r="T54" s="41">
         <v>0</v>
@@ -7608,28 +7608,28 @@
         <v>0</v>
       </c>
       <c r="X54" s="49">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y54" s="51">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="Z54" s="53">
-        <v>4</v>
+        <v>587</v>
       </c>
       <c r="AA54" s="55">
-        <v>10</v>
+        <v>1474</v>
       </c>
       <c r="AB54" s="57">
-        <v>-6</v>
+        <v>-887</v>
       </c>
       <c r="AC54" s="59">
-        <v>3</v>
+        <v>393</v>
       </c>
       <c r="AD54" s="61">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="AE54" s="63">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AF54" s="65">
         <v>0</v>
@@ -7641,16 +7641,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="71">
-        <v>5</v>
+        <v>634</v>
       </c>
       <c r="AJ54" s="73">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="AK54" s="75">
-        <v>4</v>
+        <v>548</v>
       </c>
       <c r="AL54" s="77">
-        <v>75</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="55">
@@ -7658,58 +7658,58 @@
         <v>67</v>
       </c>
       <c r="B55" s="5">
-        <v>4</v>
+        <v>563</v>
       </c>
       <c r="C55" s="7">
-        <v>11</v>
+        <v>1585</v>
       </c>
       <c r="D55" s="9">
-        <v>-7</v>
+        <v>-1022</v>
       </c>
       <c r="E55" s="11">
-        <v>28</v>
+        <v>4112</v>
       </c>
       <c r="F55" s="13">
-        <v>39</v>
+        <v>5751</v>
       </c>
       <c r="G55" s="15">
-        <v>-11</v>
+        <v>-1640</v>
       </c>
       <c r="H55" s="17">
-        <v>44</v>
+        <v>6585</v>
       </c>
       <c r="I55" s="19">
-        <v>27</v>
+        <v>3989</v>
       </c>
       <c r="J55" s="21">
-        <v>17</v>
+        <v>2597</v>
       </c>
       <c r="K55" s="23">
-        <v>6</v>
+        <v>834</v>
       </c>
       <c r="L55" s="25">
-        <v>4</v>
+        <v>572</v>
       </c>
       <c r="M55" s="27">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="N55" s="29">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O55" s="31">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="P55" s="33">
-        <v>-1</v>
+        <v>-211</v>
       </c>
       <c r="Q55" s="35">
-        <v>5</v>
+        <v>716</v>
       </c>
       <c r="R55" s="37">
-        <v>8</v>
+        <v>1202</v>
       </c>
       <c r="S55" s="39">
-        <v>-3</v>
+        <v>-486</v>
       </c>
       <c r="T55" s="41">
         <v>0</v>
@@ -7730,22 +7730,22 @@
         <v>0</v>
       </c>
       <c r="Z55" s="53">
-        <v>18</v>
+        <v>2669</v>
       </c>
       <c r="AA55" s="55">
-        <v>3</v>
+        <v>469</v>
       </c>
       <c r="AB55" s="57">
-        <v>15</v>
+        <v>2200</v>
       </c>
       <c r="AC55" s="59">
-        <v>16</v>
+        <v>2314</v>
       </c>
       <c r="AD55" s="61">
-        <v>10</v>
+        <v>1482</v>
       </c>
       <c r="AE55" s="63">
-        <v>5</v>
+        <v>832</v>
       </c>
       <c r="AF55" s="65">
         <v>0</v>
@@ -7757,16 +7757,16 @@
         <v>0</v>
       </c>
       <c r="AI55" s="71">
-        <v>4</v>
+        <v>580</v>
       </c>
       <c r="AJ55" s="73">
-        <v>3</v>
+        <v>515</v>
       </c>
       <c r="AK55" s="75">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="AL55" s="77">
-        <v>80</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="56">
@@ -7774,94 +7774,94 @@
         <v>68</v>
       </c>
       <c r="B56" s="5">
-        <v>12</v>
+        <v>1617</v>
       </c>
       <c r="C56" s="7">
-        <v>12</v>
+        <v>1692</v>
       </c>
       <c r="D56" s="9">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="E56" s="11">
-        <v>46</v>
+        <v>6309</v>
       </c>
       <c r="F56" s="13">
-        <v>61</v>
+        <v>8501</v>
       </c>
       <c r="G56" s="15">
-        <v>-15</v>
+        <v>-2192</v>
       </c>
       <c r="H56" s="17">
-        <v>69</v>
+        <v>9763</v>
       </c>
       <c r="I56" s="19">
-        <v>50</v>
+        <v>6827</v>
       </c>
       <c r="J56" s="21">
-        <v>20</v>
+        <v>2937</v>
       </c>
       <c r="K56" s="23">
-        <v>5</v>
+        <v>656</v>
       </c>
       <c r="L56" s="25">
-        <v>13</v>
+        <v>1804</v>
       </c>
       <c r="M56" s="27">
-        <v>-9</v>
+        <v>-1148</v>
       </c>
       <c r="N56" s="29">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="O56" s="31">
-        <v>4</v>
+        <v>531</v>
       </c>
       <c r="P56" s="33">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="Q56" s="35">
-        <v>14</v>
+        <v>2010</v>
       </c>
       <c r="R56" s="37">
-        <v>6</v>
+        <v>833</v>
       </c>
       <c r="S56" s="39">
-        <v>8</v>
+        <v>1177</v>
       </c>
       <c r="T56" s="41">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="U56" s="43">
         <v>0</v>
       </c>
       <c r="V56" s="45">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W56" s="47">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="X56" s="49">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y56" s="51">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z56" s="53">
-        <v>37</v>
+        <v>5212</v>
       </c>
       <c r="AA56" s="55">
-        <v>16</v>
+        <v>2252</v>
       </c>
       <c r="AB56" s="57">
-        <v>20</v>
+        <v>2960</v>
       </c>
       <c r="AC56" s="59">
-        <v>9</v>
+        <v>1290</v>
       </c>
       <c r="AD56" s="61">
-        <v>10</v>
+        <v>1382</v>
       </c>
       <c r="AE56" s="63">
-        <v>-1</v>
+        <v>-92</v>
       </c>
       <c r="AF56" s="65">
         <v>0</v>
@@ -7873,16 +7873,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="71">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="AJ56" s="73">
-        <v>6</v>
+        <v>856</v>
       </c>
       <c r="AK56" s="75">
-        <v>-4</v>
+        <v>-669</v>
       </c>
       <c r="AL56" s="77">
-        <v>128</v>
+        <v>17876</v>
       </c>
     </row>
     <row r="57">
@@ -7890,94 +7890,94 @@
         <v>69</v>
       </c>
       <c r="B57" s="5">
-        <v>12</v>
+        <v>1786</v>
       </c>
       <c r="C57" s="7">
-        <v>12</v>
+        <v>1801</v>
       </c>
       <c r="D57" s="9">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E57" s="11">
-        <v>42</v>
+        <v>6039</v>
       </c>
       <c r="F57" s="13">
-        <v>68</v>
+        <v>9843</v>
       </c>
       <c r="G57" s="15">
-        <v>-26</v>
+        <v>-3805</v>
       </c>
       <c r="H57" s="17">
-        <v>75</v>
+        <v>10851</v>
       </c>
       <c r="I57" s="19">
-        <v>40</v>
+        <v>5787</v>
       </c>
       <c r="J57" s="21">
+        <v>5064</v>
+      </c>
+      <c r="K57" s="23">
+        <v>1753</v>
+      </c>
+      <c r="L57" s="25">
+        <v>469</v>
+      </c>
+      <c r="M57" s="27">
+        <v>1284</v>
+      </c>
+      <c r="N57" s="29">
+        <v>382</v>
+      </c>
+      <c r="O57" s="31">
+        <v>859</v>
+      </c>
+      <c r="P57" s="33">
+        <v>-477</v>
+      </c>
+      <c r="Q57" s="35">
+        <v>4320</v>
+      </c>
+      <c r="R57" s="37">
+        <v>943</v>
+      </c>
+      <c r="S57" s="39">
+        <v>3378</v>
+      </c>
+      <c r="T57" s="41">
+        <v>0</v>
+      </c>
+      <c r="U57" s="43">
+        <v>0</v>
+      </c>
+      <c r="V57" s="45">
+        <v>0</v>
+      </c>
+      <c r="W57" s="47">
         <v>35</v>
       </c>
-      <c r="K57" s="23">
-        <v>12</v>
-      </c>
-      <c r="L57" s="25">
-        <v>3</v>
-      </c>
-      <c r="M57" s="27">
-        <v>9</v>
-      </c>
-      <c r="N57" s="29">
-        <v>3</v>
-      </c>
-      <c r="O57" s="31">
-        <v>6</v>
-      </c>
-      <c r="P57" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q57" s="35">
-        <v>30</v>
-      </c>
-      <c r="R57" s="37">
-        <v>6</v>
-      </c>
-      <c r="S57" s="39">
-        <v>23</v>
-      </c>
-      <c r="T57" s="41">
-        <v>0</v>
-      </c>
-      <c r="U57" s="43">
-        <v>0</v>
-      </c>
-      <c r="V57" s="45">
-        <v>0</v>
-      </c>
-      <c r="W57" s="47">
-        <v>0</v>
-      </c>
       <c r="X57" s="49">
         <v>0</v>
       </c>
       <c r="Y57" s="51">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Z57" s="53">
-        <v>19</v>
+        <v>2699</v>
       </c>
       <c r="AA57" s="55">
-        <v>13</v>
+        <v>1889</v>
       </c>
       <c r="AB57" s="57">
-        <v>6</v>
+        <v>810</v>
       </c>
       <c r="AC57" s="59">
-        <v>11</v>
+        <v>1661</v>
       </c>
       <c r="AD57" s="61">
-        <v>11</v>
+        <v>1627</v>
       </c>
       <c r="AE57" s="63">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF57" s="65">
         <v>0</v>
@@ -7989,16 +7989,16 @@
         <v>0</v>
       </c>
       <c r="AI57" s="71">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ57" s="73">
-        <v>9</v>
+        <v>1304</v>
       </c>
       <c r="AK57" s="75">
-        <v>-9</v>
+        <v>-1244</v>
       </c>
       <c r="AL57" s="77">
-        <v>129</v>
+        <v>18736</v>
       </c>
     </row>
     <row r="58">
@@ -8006,115 +8006,115 @@
         <v>70</v>
       </c>
       <c r="B58" s="5">
-        <v>14</v>
+        <v>1750</v>
       </c>
       <c r="C58" s="7">
-        <v>43</v>
+        <v>5359</v>
       </c>
       <c r="D58" s="9">
-        <v>-29</v>
+        <v>-3609</v>
       </c>
       <c r="E58" s="11">
-        <v>95</v>
+        <v>12004</v>
       </c>
       <c r="F58" s="13">
-        <v>118</v>
+        <v>15086</v>
       </c>
       <c r="G58" s="15">
-        <v>-23</v>
+        <v>-3082</v>
       </c>
       <c r="H58" s="17">
-        <v>78</v>
+        <v>10157</v>
       </c>
       <c r="I58" s="19">
-        <v>27</v>
+        <v>3496</v>
       </c>
       <c r="J58" s="21">
-        <v>51</v>
+        <v>6661</v>
       </c>
       <c r="K58" s="23">
-        <v>11</v>
+        <v>1476</v>
       </c>
       <c r="L58" s="25">
-        <v>10</v>
+        <v>1259</v>
       </c>
       <c r="M58" s="27">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="N58" s="29">
+        <v>363</v>
+      </c>
+      <c r="O58" s="31">
+        <v>737</v>
+      </c>
+      <c r="P58" s="33">
+        <v>-374</v>
+      </c>
+      <c r="Q58" s="35">
+        <v>2571</v>
+      </c>
+      <c r="R58" s="37">
+        <v>324</v>
+      </c>
+      <c r="S58" s="39">
+        <v>2247</v>
+      </c>
+      <c r="T58" s="41">
+        <v>86</v>
+      </c>
+      <c r="U58" s="43">
+        <v>0</v>
+      </c>
+      <c r="V58" s="45">
+        <v>86</v>
+      </c>
+      <c r="W58" s="47">
+        <v>32</v>
+      </c>
+      <c r="X58" s="49">
         <v>3</v>
       </c>
-      <c r="O58" s="31">
-        <v>6</v>
-      </c>
-      <c r="P58" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q58" s="35">
-        <v>20</v>
-      </c>
-      <c r="R58" s="37">
-        <v>2</v>
-      </c>
-      <c r="S58" s="39">
-        <v>18</v>
-      </c>
-      <c r="T58" s="41">
-        <v>1</v>
-      </c>
-      <c r="U58" s="43">
-        <v>0</v>
-      </c>
-      <c r="V58" s="45">
-        <v>1</v>
-      </c>
-      <c r="W58" s="47">
-        <v>0</v>
-      </c>
-      <c r="X58" s="49">
-        <v>0</v>
-      </c>
       <c r="Y58" s="51">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z58" s="53">
-        <v>10</v>
+        <v>1272</v>
       </c>
       <c r="AA58" s="55">
-        <v>6</v>
+        <v>769</v>
       </c>
       <c r="AB58" s="57">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="AC58" s="59">
-        <v>33</v>
+        <v>4357</v>
       </c>
       <c r="AD58" s="61">
-        <v>3</v>
+        <v>404</v>
       </c>
       <c r="AE58" s="63">
+        <v>3953</v>
+      </c>
+      <c r="AF58" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="71">
+        <v>84</v>
+      </c>
+      <c r="AJ58" s="73">
+        <v>54</v>
+      </c>
+      <c r="AK58" s="75">
         <v>30</v>
       </c>
-      <c r="AF58" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ58" s="73">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="75">
-        <v>0</v>
-      </c>
       <c r="AL58" s="77">
-        <v>188</v>
+        <v>23995</v>
       </c>
     </row>
     <row r="59">
@@ -8122,58 +8122,58 @@
         <v>71</v>
       </c>
       <c r="B59" s="5">
-        <v>7</v>
+        <v>823</v>
       </c>
       <c r="C59" s="7">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="D59" s="9">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="E59" s="11">
-        <v>33</v>
+        <v>3889</v>
       </c>
       <c r="F59" s="13">
-        <v>31</v>
+        <v>3777</v>
       </c>
       <c r="G59" s="15">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="H59" s="17">
-        <v>14</v>
+        <v>1713</v>
       </c>
       <c r="I59" s="19">
-        <v>18</v>
+        <v>2164</v>
       </c>
       <c r="J59" s="21">
-        <v>-4</v>
+        <v>-451</v>
       </c>
       <c r="K59" s="23">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="L59" s="25">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="M59" s="27">
-        <v>-1</v>
+        <v>-111</v>
       </c>
       <c r="N59" s="29">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="O59" s="31">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="P59" s="33">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Q59" s="35">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="R59" s="37">
-        <v>6</v>
+        <v>680</v>
       </c>
       <c r="S59" s="39">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="T59" s="41">
         <v>0</v>
@@ -8188,49 +8188,49 @@
         <v>0</v>
       </c>
       <c r="X59" s="49">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="Y59" s="51">
-        <v>-1</v>
+        <v>-89</v>
       </c>
       <c r="Z59" s="53">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="AA59" s="55">
-        <v>5</v>
+        <v>622</v>
       </c>
       <c r="AB59" s="57">
-        <v>-2</v>
+        <v>-241</v>
       </c>
       <c r="AC59" s="59">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="AD59" s="61">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AE59" s="63">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="AF59" s="65">
         <v>0</v>
       </c>
       <c r="AG59" s="67">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="AH59" s="69">
-        <v>-1</v>
+        <v>-73</v>
       </c>
       <c r="AI59" s="71">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="AJ59" s="73">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="AK59" s="75">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL59" s="77">
-        <v>56</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="60">
@@ -8238,115 +8238,115 @@
         <v>72</v>
       </c>
       <c r="B60" s="5">
-        <v>17</v>
+        <v>2129</v>
       </c>
       <c r="C60" s="7">
-        <v>13</v>
+        <v>1583</v>
       </c>
       <c r="D60" s="9">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="E60" s="11">
+        <v>3838</v>
+      </c>
+      <c r="F60" s="13">
+        <v>4027</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-190</v>
+      </c>
+      <c r="H60" s="17">
+        <v>3030</v>
+      </c>
+      <c r="I60" s="19">
+        <v>3419</v>
+      </c>
+      <c r="J60" s="21">
+        <v>-389</v>
+      </c>
+      <c r="K60" s="23">
+        <v>1090</v>
+      </c>
+      <c r="L60" s="25">
+        <v>842</v>
+      </c>
+      <c r="M60" s="27">
+        <v>248</v>
+      </c>
+      <c r="N60" s="29">
+        <v>35</v>
+      </c>
+      <c r="O60" s="31">
+        <v>352</v>
+      </c>
+      <c r="P60" s="33">
+        <v>-317</v>
+      </c>
+      <c r="Q60" s="35">
+        <v>198</v>
+      </c>
+      <c r="R60" s="37">
+        <v>124</v>
+      </c>
+      <c r="S60" s="39">
+        <v>74</v>
+      </c>
+      <c r="T60" s="41">
+        <v>0</v>
+      </c>
+      <c r="U60" s="43">
+        <v>0</v>
+      </c>
+      <c r="V60" s="45">
+        <v>0</v>
+      </c>
+      <c r="W60" s="47">
+        <v>0</v>
+      </c>
+      <c r="X60" s="49">
         <v>31</v>
       </c>
-      <c r="F60" s="13">
+      <c r="Y60" s="51">
+        <v>-31</v>
+      </c>
+      <c r="Z60" s="53">
+        <v>527</v>
+      </c>
+      <c r="AA60" s="55">
+        <v>1419</v>
+      </c>
+      <c r="AB60" s="57">
+        <v>-892</v>
+      </c>
+      <c r="AC60" s="59">
+        <v>1144</v>
+      </c>
+      <c r="AD60" s="61">
+        <v>175</v>
+      </c>
+      <c r="AE60" s="63">
+        <v>969</v>
+      </c>
+      <c r="AF60" s="65">
+        <v>36</v>
+      </c>
+      <c r="AG60" s="67">
+        <v>475</v>
+      </c>
+      <c r="AH60" s="69">
+        <v>-440</v>
+      </c>
+      <c r="AI60" s="71">
         <v>32</v>
       </c>
-      <c r="G60" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H60" s="17">
-        <v>24</v>
-      </c>
-      <c r="I60" s="19">
-        <v>28</v>
-      </c>
-      <c r="J60" s="21">
-        <v>-3</v>
-      </c>
-      <c r="K60" s="23">
-        <v>9</v>
-      </c>
-      <c r="L60" s="25">
-        <v>7</v>
-      </c>
-      <c r="M60" s="27">
-        <v>2</v>
-      </c>
-      <c r="N60" s="29">
-        <v>0</v>
-      </c>
-      <c r="O60" s="31">
-        <v>3</v>
-      </c>
-      <c r="P60" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q60" s="35">
-        <v>2</v>
-      </c>
-      <c r="R60" s="37">
-        <v>1</v>
-      </c>
-      <c r="S60" s="39">
-        <v>1</v>
-      </c>
-      <c r="T60" s="41">
-        <v>0</v>
-      </c>
-      <c r="U60" s="43">
-        <v>0</v>
-      </c>
-      <c r="V60" s="45">
-        <v>0</v>
-      </c>
-      <c r="W60" s="47">
-        <v>0</v>
-      </c>
-      <c r="X60" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="53">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="55">
-        <v>11</v>
-      </c>
-      <c r="AB60" s="57">
-        <v>-7</v>
-      </c>
-      <c r="AC60" s="59">
-        <v>9</v>
-      </c>
-      <c r="AD60" s="61">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="63">
-        <v>8</v>
-      </c>
-      <c r="AF60" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="67">
-        <v>4</v>
-      </c>
-      <c r="AH60" s="69">
-        <v>-4</v>
-      </c>
-      <c r="AI60" s="71">
-        <v>0</v>
-      </c>
       <c r="AJ60" s="73">
         <v>0</v>
       </c>
       <c r="AK60" s="75">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL60" s="77">
-        <v>73</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="61">
@@ -8354,115 +8354,115 @@
         <v>73</v>
       </c>
       <c r="B61" s="5">
-        <v>24</v>
+        <v>3395</v>
       </c>
       <c r="C61" s="7">
-        <v>16</v>
+        <v>2243</v>
       </c>
       <c r="D61" s="9">
-        <v>8</v>
+        <v>1152</v>
       </c>
       <c r="E61" s="11">
-        <v>36</v>
+        <v>4985</v>
       </c>
       <c r="F61" s="13">
-        <v>41</v>
+        <v>5634</v>
       </c>
       <c r="G61" s="15">
-        <v>-4</v>
+        <v>-649</v>
       </c>
       <c r="H61" s="17">
-        <v>50</v>
+        <v>6809</v>
       </c>
       <c r="I61" s="19">
-        <v>54</v>
+        <v>7287</v>
       </c>
       <c r="J61" s="21">
-        <v>-4</v>
+        <v>-478</v>
       </c>
       <c r="K61" s="23">
-        <v>32</v>
+        <v>4322</v>
       </c>
       <c r="L61" s="25">
-        <v>6</v>
+        <v>723</v>
       </c>
       <c r="M61" s="27">
-        <v>26</v>
+        <v>3599</v>
       </c>
       <c r="N61" s="29">
-        <v>5</v>
+        <v>640</v>
       </c>
       <c r="O61" s="31">
-        <v>8</v>
+        <v>1182</v>
       </c>
       <c r="P61" s="33">
-        <v>-4</v>
+        <v>-543</v>
       </c>
       <c r="Q61" s="35">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="R61" s="37">
-        <v>8</v>
+        <v>1097</v>
       </c>
       <c r="S61" s="39">
-        <v>-5</v>
+        <v>-705</v>
       </c>
       <c r="T61" s="41">
         <v>0</v>
       </c>
       <c r="U61" s="43">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V61" s="45">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="W61" s="47">
         <v>0</v>
       </c>
       <c r="X61" s="49">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y61" s="51">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="Z61" s="53">
-        <v>6</v>
+        <v>812</v>
       </c>
       <c r="AA61" s="55">
-        <v>22</v>
+        <v>3066</v>
       </c>
       <c r="AB61" s="57">
-        <v>-16</v>
+        <v>-2254</v>
       </c>
       <c r="AC61" s="59">
-        <v>4</v>
+        <v>584</v>
       </c>
       <c r="AD61" s="61">
-        <v>7</v>
+        <v>999</v>
       </c>
       <c r="AE61" s="63">
-        <v>-3</v>
+        <v>-415</v>
       </c>
       <c r="AF61" s="65">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AG61" s="67">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="AH61" s="69">
-        <v>-1</v>
+        <v>-99</v>
       </c>
       <c r="AI61" s="71">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AJ61" s="73">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AK61" s="75">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AL61" s="77">
-        <v>111</v>
+        <v>15242</v>
       </c>
     </row>
     <row r="62">
@@ -8470,115 +8470,115 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>39</v>
+        <v>5989</v>
       </c>
       <c r="C62" s="7">
-        <v>47</v>
+        <v>7354</v>
       </c>
       <c r="D62" s="9">
-        <v>-9</v>
+        <v>-1365</v>
       </c>
       <c r="E62" s="11">
-        <v>130</v>
+        <v>20409</v>
       </c>
       <c r="F62" s="13">
-        <v>111</v>
+        <v>17511</v>
       </c>
       <c r="G62" s="15">
-        <v>19</v>
+        <v>2898</v>
       </c>
       <c r="H62" s="17">
-        <v>73</v>
+        <v>11407</v>
       </c>
       <c r="I62" s="19">
-        <v>106</v>
+        <v>16425</v>
       </c>
       <c r="J62" s="21">
-        <v>-33</v>
+        <v>-5018</v>
       </c>
       <c r="K62" s="23">
-        <v>8</v>
+        <v>1110</v>
       </c>
       <c r="L62" s="25">
-        <v>6</v>
+        <v>1007</v>
       </c>
       <c r="M62" s="27">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="N62" s="29">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="O62" s="31">
-        <v>7</v>
+        <v>990</v>
       </c>
       <c r="P62" s="33">
-        <v>-6</v>
+        <v>-862</v>
       </c>
       <c r="Q62" s="35">
-        <v>29</v>
+        <v>4681</v>
       </c>
       <c r="R62" s="37">
-        <v>7</v>
+        <v>1039</v>
       </c>
       <c r="S62" s="39">
-        <v>23</v>
+        <v>3642</v>
       </c>
       <c r="T62" s="41">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U62" s="43">
         <v>0</v>
       </c>
       <c r="V62" s="45">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W62" s="47">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="X62" s="49">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="Y62" s="51">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="Z62" s="53">
-        <v>15</v>
+        <v>2411</v>
       </c>
       <c r="AA62" s="55">
-        <v>75</v>
+        <v>11706</v>
       </c>
       <c r="AB62" s="57">
-        <v>-60</v>
+        <v>-9296</v>
       </c>
       <c r="AC62" s="59">
-        <v>13</v>
+        <v>1959</v>
       </c>
       <c r="AD62" s="61">
-        <v>4</v>
+        <v>687</v>
       </c>
       <c r="AE62" s="63">
-        <v>8</v>
+        <v>1271</v>
       </c>
       <c r="AF62" s="65">
-        <v>6</v>
+        <v>1007</v>
       </c>
       <c r="AG62" s="67">
-        <v>6</v>
+        <v>878</v>
       </c>
       <c r="AH62" s="69">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AI62" s="71">
-        <v>22</v>
+        <v>3501</v>
       </c>
       <c r="AJ62" s="73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK62" s="75">
-        <v>22</v>
+        <v>3485</v>
       </c>
       <c r="AL62" s="77">
-        <v>264</v>
+        <v>41307</v>
       </c>
     </row>
     <row r="63">
@@ -8586,115 +8586,115 @@
         <v>75</v>
       </c>
       <c r="B63" s="6">
-        <v>83</v>
+        <v>10367</v>
       </c>
       <c r="C63" s="8">
-        <v>82</v>
+        <v>10371</v>
       </c>
       <c r="D63" s="10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E63" s="12">
-        <v>704</v>
+        <v>93194</v>
       </c>
       <c r="F63" s="14">
-        <v>585</v>
+        <v>76995</v>
       </c>
       <c r="G63" s="16">
-        <v>119</v>
+        <v>16198</v>
       </c>
       <c r="H63" s="18">
-        <v>90</v>
+        <v>11562</v>
       </c>
       <c r="I63" s="20">
-        <v>227</v>
+        <v>29965</v>
       </c>
       <c r="J63" s="22">
-        <v>-137</v>
+        <v>-18403</v>
       </c>
       <c r="K63" s="24">
-        <v>19</v>
+        <v>2386</v>
       </c>
       <c r="L63" s="26">
-        <v>11</v>
+        <v>1474</v>
       </c>
       <c r="M63" s="28">
-        <v>8</v>
+        <v>912</v>
       </c>
       <c r="N63" s="30">
-        <v>3</v>
+        <v>416</v>
       </c>
       <c r="O63" s="32">
-        <v>29</v>
+        <v>3959</v>
       </c>
       <c r="P63" s="34">
-        <v>-26</v>
+        <v>-3544</v>
       </c>
       <c r="Q63" s="36">
-        <v>11</v>
+        <v>1438</v>
       </c>
       <c r="R63" s="38">
-        <v>66</v>
+        <v>8979</v>
       </c>
       <c r="S63" s="40">
-        <v>-55</v>
+        <v>-7541</v>
       </c>
       <c r="T63" s="42">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U63" s="44">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="V63" s="46">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="W63" s="48">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="X63" s="50">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y63" s="52">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="Z63" s="54">
-        <v>33</v>
+        <v>4255</v>
       </c>
       <c r="AA63" s="56">
-        <v>74</v>
+        <v>9276</v>
       </c>
       <c r="AB63" s="58">
-        <v>-41</v>
+        <v>-5021</v>
       </c>
       <c r="AC63" s="60">
-        <v>20</v>
+        <v>2552</v>
       </c>
       <c r="AD63" s="62">
-        <v>41</v>
+        <v>5406</v>
       </c>
       <c r="AE63" s="64">
-        <v>-21</v>
+        <v>-2854</v>
       </c>
       <c r="AF63" s="66">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="AG63" s="68">
-        <v>6</v>
+        <v>801</v>
       </c>
       <c r="AH63" s="70">
-        <v>-3</v>
+        <v>-491</v>
       </c>
       <c r="AI63" s="72">
-        <v>18</v>
+        <v>2290</v>
       </c>
       <c r="AJ63" s="74">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="AK63" s="76">
-        <v>17</v>
+        <v>2209</v>
       </c>
       <c r="AL63" s="78">
-        <v>895</v>
+        <v>117413</v>
       </c>
     </row>
   </sheetData>
